--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Documents\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF43D2-6480-4BD0-AA4E-B08EE1813118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE31CA-8212-4630-B26A-1AD5C6C949D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -317,6 +317,10 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(12/11)ファイルサーバ画面の実装の調査中ですので、現状で見通しの立っていない部分のみ未記載です</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -902,26 +906,26 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.78515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.35546875" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
@@ -931,7 +935,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -960,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -973,7 +977,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -996,7 +1000,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1019,7 +1023,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1039,10 +1043,12 @@
       <c r="G7" s="16">
         <v>44175</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16">
+        <v>44176</v>
+      </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1063,9 +1069,11 @@
         <v>44175</v>
       </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1082,11 +1090,15 @@
       <c r="F9" s="16">
         <v>44176</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>44176</v>
+      </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
@@ -1099,7 +1111,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>5</v>
       </c>
@@ -1120,7 +1132,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>6</v>
       </c>
@@ -1141,7 +1153,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>7</v>
       </c>
@@ -1162,7 +1174,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>8</v>
       </c>
@@ -1183,7 +1195,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>9</v>
       </c>
@@ -1204,7 +1216,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>10</v>
       </c>
@@ -1225,7 +1237,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>11</v>
       </c>
@@ -1246,7 +1258,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>12</v>
       </c>
@@ -1267,7 +1279,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>13</v>
       </c>
@@ -1288,7 +1300,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>14</v>
       </c>
@@ -1309,7 +1321,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>15</v>
       </c>
@@ -1330,7 +1342,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>16</v>
       </c>
@@ -1351,7 +1363,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -1372,7 +1384,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -1393,7 +1405,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>25</v>
@@ -1406,7 +1418,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -1446,7 +1458,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="25"/>
       <c r="C28" s="21"/>
@@ -1457,7 +1469,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
@@ -1468,7 +1480,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1479,7 +1491,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1490,7 +1502,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1501,7 +1513,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1512,7 +1524,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1523,7 +1535,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1534,7 +1546,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1545,7 +1557,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1556,7 +1568,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1567,7 +1579,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1578,7 +1590,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1589,7 +1601,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1600,7 +1612,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1609,7 +1621,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1618,7 +1630,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1627,7 +1639,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1643,5 +1655,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE31CA-8212-4630-B26A-1AD5C6C949D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B91895-0656-40BA-A30B-2E0DED35EB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -103,16 +102,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>石川/藤田</t>
-    <rPh sb="0" eb="2">
-      <t>イシカワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フジタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>設計書</t>
     <rPh sb="0" eb="3">
       <t>セッケイショ</t>
@@ -321,6 +310,26 @@
   </si>
   <si>
     <t>(12/11)ファイルサーバ画面の実装の調査中ですので、現状で見通しの立っていない部分のみ未記載です</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石川/宮田/藤田</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミヤタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フジタ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -906,26 +915,26 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.375" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.3984375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
@@ -935,9 +944,9 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -964,10 +973,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -977,12 +986,12 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>9</v>
@@ -1000,12 +1009,12 @@
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>9</v>
@@ -1023,12 +1032,12 @@
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>8</v>
@@ -1048,12 +1057,12 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>8</v>
@@ -1070,15 +1079,15 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>8</v>
@@ -1095,13 +1104,13 @@
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1111,15 +1120,15 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="27">
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="16">
@@ -1132,15 +1141,15 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="27">
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="16">
@@ -1153,12 +1162,12 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27">
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>9</v>
@@ -1174,12 +1183,12 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27">
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>9</v>
@@ -1195,12 +1204,12 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="27">
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>9</v>
@@ -1216,12 +1225,12 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27">
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>9</v>
@@ -1237,12 +1246,12 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="27">
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>8</v>
@@ -1258,12 +1267,12 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="27">
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>8</v>
@@ -1279,12 +1288,12 @@
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27">
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>9</v>
@@ -1300,12 +1309,12 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27">
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>9</v>
@@ -1321,12 +1330,12 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27">
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>9</v>
@@ -1342,12 +1351,12 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="27">
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>8</v>
@@ -1363,12 +1372,12 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14">
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>8</v>
@@ -1384,15 +1393,15 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>18</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16">
@@ -1405,10 +1414,10 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1418,12 +1427,12 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="20">
         <v>19</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1436,15 +1445,15 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="20">
         <v>20</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -1458,7 +1467,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="20"/>
       <c r="B28" s="25"/>
       <c r="C28" s="21"/>
@@ -1469,7 +1478,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
@@ -1480,7 +1489,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1491,7 +1500,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1502,7 +1511,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1513,7 +1522,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1524,7 +1533,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1535,7 +1544,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1546,7 +1555,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1557,7 +1566,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1568,7 +1577,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1579,7 +1588,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1590,7 +1599,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1601,7 +1610,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1612,7 +1621,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1621,7 +1630,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1630,7 +1639,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1639,7 +1648,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1655,6 +1664,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B91895-0656-40BA-A30B-2E0DED35EB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10DE06-05D5-4C5C-B1B9-394A4C1D637A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -329,6 +329,40 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2020/12/15)ビューの作成が主でした。フォルダ名の表示方法や、複数のファイルのアップ・ダウンロードについて調査中も、実装には至っていません。</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>イタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -425,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -509,13 +543,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +657,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,26 +981,26 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I17" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.3984375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.3984375" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
@@ -944,7 +1010,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -973,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -986,7 +1052,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1009,7 +1075,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1032,7 +1098,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1057,7 +1123,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1082,7 +1148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1107,7 +1173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>23</v>
@@ -1120,7 +1186,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>5</v>
       </c>
@@ -1141,7 +1207,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>6</v>
       </c>
@@ -1162,7 +1228,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>7</v>
       </c>
@@ -1183,7 +1249,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>8</v>
       </c>
@@ -1204,7 +1270,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>9</v>
       </c>
@@ -1225,7 +1291,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>10</v>
       </c>
@@ -1246,7 +1312,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>11</v>
       </c>
@@ -1263,11 +1329,15 @@
       <c r="F17" s="31">
         <v>44182</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="16">
+        <v>44180</v>
+      </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>12</v>
       </c>
@@ -1284,11 +1354,13 @@
       <c r="F18" s="31">
         <v>44182</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="16">
+        <v>44180</v>
+      </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>13</v>
       </c>
@@ -1309,7 +1381,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>14</v>
       </c>
@@ -1330,7 +1402,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>15</v>
       </c>
@@ -1351,7 +1423,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>16</v>
       </c>
@@ -1372,7 +1444,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -1393,7 +1465,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -1414,7 +1486,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>24</v>
@@ -1427,7 +1499,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -1448,7 +1520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -1467,7 +1539,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="25"/>
       <c r="C28" s="21"/>
@@ -1478,7 +1550,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
@@ -1489,7 +1561,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1500,7 +1572,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1511,7 +1583,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1522,7 +1594,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1533,7 +1605,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1544,7 +1616,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1555,7 +1627,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1566,7 +1638,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1577,7 +1649,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1588,7 +1660,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1599,7 +1671,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1610,7 +1682,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1621,7 +1693,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1630,7 +1702,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1639,7 +1711,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1648,7 +1720,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1658,9 +1730,10 @@
       <c r="I45" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10DE06-05D5-4C5C-B1B9-394A4C1D637A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B86308-6CE0-4CB7-A6CC-6077EE2BF008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -363,6 +363,30 @@
     </rPh>
     <rPh sb="67" eb="68">
       <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/15 ファイル操作関連のシーケンス図未作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PG一覧</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/15バリデーションの動作確認後完了</t>
+    <rPh sb="13" eb="17">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -575,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +687,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,29 +1008,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.375" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.35546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.35546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1040,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1039,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1052,7 +1082,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1073,9 +1103,11 @@
         <v>44175</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1095,10 +1127,12 @@
       <c r="G6" s="16">
         <v>44175</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16">
+        <v>44179</v>
+      </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1123,7 +1157,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1148,7 +1182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1173,46 +1207,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="F10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="G10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="H10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="16">
-        <v>44179</v>
-      </c>
-      <c r="F11" s="16">
-        <v>44179</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27">
-        <v>6</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>38</v>
@@ -1228,59 +1266,63 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="16">
         <v>44179</v>
       </c>
-      <c r="F13" s="31">
-        <v>44180</v>
+      <c r="F13" s="16">
+        <v>44179</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="16">
         <v>44179</v>
       </c>
       <c r="F14" s="31">
         <v>44180</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="16">
+        <v>44180</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="16">
         <v>44179</v>
       </c>
@@ -1291,12 +1333,12 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>9</v>
@@ -1312,37 +1354,33 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27">
+        <v>10</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="16">
+        <v>44179</v>
+      </c>
+      <c r="F17" s="31">
+        <v>44180</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27">
         <v>11</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31">
-        <v>44180</v>
-      </c>
-      <c r="F17" s="31">
-        <v>44182</v>
-      </c>
-      <c r="G17" s="16">
-        <v>44180</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27">
-        <v>12</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>8</v>
@@ -1358,35 +1396,39 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="31">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="F19" s="31">
-        <v>44183</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>44182</v>
+      </c>
+      <c r="G19" s="16">
+        <v>44180</v>
+      </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>9</v>
@@ -1402,12 +1444,12 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>9</v>
@@ -1423,19 +1465,19 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="31">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="F22" s="31">
         <v>44183</v>
@@ -1444,115 +1486,125 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>17</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>20</v>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27">
+        <v>16</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="31">
         <v>44182</v>
       </c>
       <c r="F23" s="31">
         <v>44183</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14">
-        <v>18</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="16">
-        <v>44179</v>
-      </c>
-      <c r="F24" s="16">
-        <v>44190</v>
+      <c r="E24" s="31">
+        <v>44182</v>
+      </c>
+      <c r="F24" s="31">
+        <v>44183</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="14">
+        <v>18</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16">
+        <v>44179</v>
+      </c>
+      <c r="F25" s="16">
+        <v>44190</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="20">
         <v>19</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="16">
-        <v>44186</v>
-      </c>
-      <c r="F26" s="16">
-        <v>44186</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20">
-        <v>20</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="16">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="F27" s="16">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="25"/>
+      <c r="I27" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="20">
+        <v>20</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F28" s="16">
+        <v>44190</v>
+      </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="24"/>
@@ -1561,7 +1613,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1572,7 +1624,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1583,7 +1635,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1594,7 +1646,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1605,7 +1657,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1616,7 +1668,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1627,7 +1679,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1638,7 +1690,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1649,7 +1701,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1660,7 +1712,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1671,7 +1723,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1682,7 +1734,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1693,16 +1745,18 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1711,7 +1765,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1720,7 +1774,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1729,11 +1783,20 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B86308-6CE0-4CB7-A6CC-6077EE2BF008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F9AAB-7F87-40C6-90BC-CDD9856E8C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="4860" yWindow="1950" windowWidth="16920" windowHeight="10550" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -387,6 +379,16 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBとの連携がうまくいっていないため遅れています。</t>
+    <rPh sb="4" eb="6">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -676,6 +678,12 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,12 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,37 +1012,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.35546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.35546875" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1082,7 +1084,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1103,11 +1105,11 @@
         <v>44175</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1132,7 +1134,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1157,7 +1159,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1232,7 +1234,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1245,7 +1247,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1262,11 +1264,15 @@
       <c r="F12" s="16">
         <v>44179</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="16">
+        <v>44180</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1285,9 +1291,11 @@
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1308,11 +1316,11 @@
         <v>44180</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1333,7 +1341,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1354,7 +1362,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1375,7 +1383,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1396,11 +1404,11 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1421,9 +1429,9 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1444,7 +1452,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1465,7 +1473,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1486,7 +1494,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1507,7 +1515,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1528,7 +1536,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1549,7 +1557,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1562,7 +1570,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1602,7 +1610,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1613,7 +1621,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1624,7 +1632,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1635,7 +1643,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1646,7 +1654,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1657,7 +1665,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1668,7 +1676,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1679,7 +1687,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1690,7 +1698,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1701,7 +1709,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1712,7 +1720,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1723,7 +1731,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1734,7 +1742,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1745,7 +1753,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1756,7 +1764,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1765,7 +1773,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1774,7 +1782,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1783,7 +1791,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F9AAB-7F87-40C6-90BC-CDD9856E8C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5DDE17-19AA-41E1-8C1F-2FD2E6902039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1950" windowWidth="16920" windowHeight="10550" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -370,25 +370,77 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>12/15バリデーションの動作確認後完了</t>
-    <rPh sb="13" eb="17">
-      <t>ドウサカクニン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DBとの連携がうまくいっていないため遅れています。</t>
     <rPh sb="4" eb="6">
       <t>レンケイ</t>
     </rPh>
     <rPh sb="18" eb="19">
       <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/16 ログイン時の認証情報(セッションのログインユーザ情報)が必要な部分は未検証。情報更新機能は実装完了</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ミケンショウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/16 バリデーションが複数掛かっている項目のエラー表示に不具合あり未完了</t>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1012,27 +1064,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.35546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.35546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1094,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1071,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1084,7 +1136,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1109,7 +1161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1134,7 +1186,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1159,7 +1211,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1184,7 +1236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1209,7 +1261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1234,7 +1286,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1247,7 +1299,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1269,10 +1321,10 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1292,10 +1344,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1312,15 +1364,15 @@
       <c r="F14" s="31">
         <v>44180</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="31">
         <v>44180</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1337,11 +1389,15 @@
       <c r="F15" s="31">
         <v>44180</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="31">
+        <v>44181</v>
+      </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I15" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1358,11 +1414,15 @@
       <c r="F16" s="31">
         <v>44180</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="31">
+        <v>44181</v>
+      </c>
+      <c r="H16" s="31">
+        <v>44181</v>
+      </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1379,11 +1439,15 @@
       <c r="F17" s="31">
         <v>44180</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="31">
+        <v>44181</v>
+      </c>
+      <c r="H17" s="31">
+        <v>44181</v>
+      </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1408,7 +1472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1431,7 +1495,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1452,7 +1516,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1473,7 +1537,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1494,7 +1558,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1515,7 +1579,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1536,7 +1600,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1557,7 +1621,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1570,7 +1634,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1591,7 +1655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1610,7 +1674,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1621,7 +1685,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1632,7 +1696,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1643,7 +1707,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1654,7 +1718,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1665,7 +1729,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1676,7 +1740,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1687,7 +1751,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1698,7 +1762,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1709,7 +1773,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1720,7 +1784,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1731,7 +1795,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1742,7 +1806,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1753,7 +1817,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1764,7 +1828,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1773,7 +1837,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1782,7 +1846,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1791,7 +1855,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5DDE17-19AA-41E1-8C1F-2FD2E6902039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74753CE-6060-40D5-A308-A75F7DED73C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -370,16 +370,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DBとの連携がうまくいっていないため遅れています。</t>
-    <rPh sb="4" eb="6">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>12/16 ログイン時の認証情報(セッションのログインユーザ情報)が必要な部分は未検証。情報更新機能は実装完了</t>
     <rPh sb="10" eb="11">
       <t>ジ</t>
@@ -441,6 +431,47 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/16 異常系の処理ができていないため完了していません。</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/16 5.ログイン機能の異常系処理が完了していないため取り掛かれていません。</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1064,27 +1095,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.35546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.35546875" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1125,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1123,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1136,7 +1167,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1161,7 +1192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1186,7 +1217,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1211,7 +1242,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1236,7 +1267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1261,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1286,7 +1317,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1299,7 +1330,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1321,10 +1352,10 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1344,10 +1375,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1369,10 +1400,10 @@
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1394,10 +1425,10 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1422,7 +1453,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1447,7 +1478,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1472,7 +1503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1495,7 +1526,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1516,7 +1547,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1537,7 +1568,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1558,7 +1589,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1579,7 +1610,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1600,7 +1631,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1621,7 +1652,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1634,7 +1665,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1655,7 +1686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1674,7 +1705,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1685,7 +1716,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1696,7 +1727,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1707,7 +1738,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1718,7 +1749,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1729,7 +1760,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1740,7 +1771,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1751,7 +1782,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1762,7 +1793,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1773,7 +1804,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1784,7 +1815,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1795,7 +1826,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1806,7 +1837,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1817,7 +1848,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1828,7 +1859,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1837,7 +1868,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1846,7 +1877,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1855,7 +1886,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74753CE-6060-40D5-A308-A75F7DED73C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5582F4-3ADA-4FF7-AD25-1F0B87CF8F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -451,7 +451,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>12/16 5.ログイン機能の異常系処理が完了していないため取り掛かれていません。</t>
+    <t>12/16 5.ログイン機能の異常系処理が完了していないため、取り掛かれていません。</t>
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
@@ -467,10 +467,10 @@
     <rPh sb="21" eb="23">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="31" eb="32">
       <t>ト</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="33" eb="34">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5582F4-3ADA-4FF7-AD25-1F0B87CF8F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00463DD-9383-4169-A83F-9D321D00E350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -325,40 +325,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(2020/12/15)ビューの作成が主でした。フォルダ名の表示方法や、複数のファイルのアップ・ダウンロードについて調査中も、実装には至っていません。</t>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>12/15 ファイル操作関連のシーケンス図未作成</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -472,6 +438,96 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(12/16)順序が逆になりましたが、ビューに一覧で表示するためにファイルパスを使用するためアップロード・ダウンロード機能より先に取り組み予定です。</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(12/15)ビューの作成が主でした。フォルダ名の表示方法や、複数のファイルのアップ・ダウンロードについて調査中です。
+(12/16)アップロードされたファイルのパスやその取得方法の調査に時間を要しました。複数ファイルの扱いを引き続き調査。</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1095,27 +1151,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1181,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1154,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1167,7 +1223,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1189,10 +1245,10 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1217,7 +1273,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1242,7 +1298,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1267,7 +1323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1292,12 +1348,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>9</v>
@@ -1317,7 +1373,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1330,7 +1386,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1352,10 +1408,10 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1375,10 +1431,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1400,10 +1456,10 @@
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1425,10 +1481,10 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1453,7 +1509,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1478,7 +1534,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1500,10 +1556,10 @@
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1526,7 +1582,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1547,7 +1603,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1568,7 +1624,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1589,7 +1645,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1610,7 +1666,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1627,11 +1683,15 @@
       <c r="F24" s="31">
         <v>44183</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="16">
+        <v>44181</v>
+      </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I24" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1652,7 +1712,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1665,7 +1725,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1686,7 +1746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1705,7 +1765,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1716,7 +1776,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1727,7 +1787,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1738,7 +1798,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1749,7 +1809,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1760,7 +1820,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1771,7 +1831,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1782,7 +1842,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1793,7 +1853,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1804,7 +1864,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1815,7 +1875,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1826,7 +1886,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1837,7 +1897,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1848,7 +1908,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1859,7 +1919,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1868,7 +1928,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1877,7 +1937,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1886,7 +1946,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00463DD-9383-4169-A83F-9D321D00E350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B7C1A-7207-40D4-9EB3-D7B9BF1D3EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-28920" yWindow="6060" windowWidth="29040" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -401,47 +401,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>12/16 異常系の処理ができていないため完了していません。</t>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/16 5.ログイン機能の異常系処理が完了していないため、取り掛かれていません。</t>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(12/16)順序が逆になりましたが、ビューに一覧で表示するためにファイルパスを使用するためアップロード・ダウンロード機能より先に取り組み予定です。</t>
     <rPh sb="7" eb="9">
       <t>ジュンジョ</t>
@@ -528,6 +487,32 @@
     </rPh>
     <rPh sb="117" eb="119">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/17 セッション情報がログアウト時に削除されているか未確認</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/17 バリデーションによるエラーの表示が未実装</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1152,26 +1137,26 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.375" style="1"/>
+    <col min="10" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1166,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1223,7 +1208,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1248,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1273,7 +1258,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1298,7 +1283,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1323,7 +1308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1348,7 +1333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1373,7 +1358,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1386,7 +1371,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1408,10 +1393,10 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1428,13 +1413,17 @@
       <c r="F13" s="16">
         <v>44179</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="16">
+        <v>44182</v>
+      </c>
+      <c r="H13" s="16">
+        <v>44182</v>
+      </c>
       <c r="I13" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1459,7 +1448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1484,7 +1473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1509,7 +1498,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1534,7 +1523,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1556,10 +1545,10 @@
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1582,7 +1571,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1603,7 +1592,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1624,7 +1613,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1645,7 +1634,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1666,7 +1655,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1688,10 +1677,10 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1712,7 +1701,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1725,7 +1714,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1746,7 +1735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1765,7 +1754,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1776,7 +1765,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1787,7 +1776,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1798,7 +1787,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1809,7 +1798,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1820,7 +1809,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1831,7 +1820,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1842,7 +1831,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1853,7 +1842,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1864,7 +1853,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1875,7 +1864,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1886,7 +1875,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1897,7 +1886,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1908,7 +1897,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1919,7 +1908,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1928,7 +1917,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1937,7 +1926,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1946,7 +1935,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1217\document_push_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B7C1A-7207-40D4-9EB3-D7B9BF1D3EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75939CA3-F9C1-4F5E-B43F-606FE49DDF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6060" windowWidth="29040" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -332,46 +332,6 @@
     <t>PG一覧</t>
     <rPh sb="2" eb="4">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/16 ログイン時の認証情報(セッションのログインユーザ情報)が必要な部分は未検証。情報更新機能は実装完了</t>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>ミケンショウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -513,6 +473,19 @@
     </rPh>
     <rPh sb="23" eb="26">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/17 java.ioのFileクラスを活用して実装できないか検討中</t>
+    <rPh sb="22" eb="24">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ケントウチュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -725,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,26 +1113,26 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="4.0703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.35546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1142,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1195,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1208,7 +1184,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1233,7 +1209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1258,7 +1234,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1283,7 +1259,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1308,7 +1284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1333,7 +1309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1358,7 +1334,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1371,7 +1347,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1393,10 +1369,10 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1420,10 +1396,10 @@
         <v>44182</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1445,10 +1421,10 @@
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1468,12 +1444,12 @@
       <c r="G15" s="31">
         <v>44181</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H15" s="16">
+        <v>44182</v>
+      </c>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1498,7 +1474,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1523,7 +1499,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1545,10 +1521,10 @@
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1571,7 +1547,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1588,11 +1564,15 @@
       <c r="F20" s="31">
         <v>44183</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="16">
+        <v>44182</v>
+      </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I20" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1609,11 +1589,15 @@
       <c r="F21" s="31">
         <v>44183</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="16">
+        <v>44182</v>
+      </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I21" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1630,11 +1614,15 @@
       <c r="F22" s="31">
         <v>44183</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="16">
+        <v>44182</v>
+      </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I22" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1655,7 +1643,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1677,10 +1665,10 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1701,7 +1689,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1714,7 +1702,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1735,7 +1723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1754,7 +1742,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1765,7 +1753,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1776,7 +1764,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1787,7 +1775,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1798,7 +1786,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1809,7 +1797,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1820,7 +1808,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1831,7 +1819,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1842,7 +1830,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1853,7 +1841,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1864,7 +1852,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1875,7 +1863,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1886,7 +1874,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1897,7 +1885,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1908,7 +1896,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1917,7 +1905,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1926,7 +1914,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1935,7 +1923,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1217\document_push_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75939CA3-F9C1-4F5E-B43F-606FE49DDF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D112D8-1D3E-4208-B5B4-38A1DD5C495B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="5595" yWindow="510" windowWidth="28770" windowHeight="14460" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -361,96 +361,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(12/16)順序が逆になりましたが、ビューに一覧で表示するためにファイルパスを使用するためアップロード・ダウンロード機能より先に取り組み予定です。</t>
-    <rPh sb="7" eb="9">
-      <t>ジュンジョ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(12/15)ビューの作成が主でした。フォルダ名の表示方法や、複数のファイルのアップ・ダウンロードについて調査中です。
-(12/16)アップロードされたファイルのパスやその取得方法の調査に時間を要しました。複数ファイルの扱いを引き続き調査。</t>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>12/17 セッション情報がログアウト時に削除されているか未確認</t>
     <rPh sb="11" eb="13">
       <t>ジョウホウ</t>
@@ -486,6 +396,106 @@
     </rPh>
     <rPh sb="33" eb="36">
       <t>ケントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(12/17) java.io.Fileもしくはjava.nio.file.Filesクラスを活用しての実装も検討中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(12/16)アップロードされたファイルのパスやその取得方法の調査に時間を要しました。複数ファイルの扱いを引き続き調査
+(12/17)個別のダウンロードと個別・複数ファイルのアップロード機能実装済み。ただし同名ファイルの上書き処理やフォルダごとの処理は未実装</t>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ジッソウズ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="126" eb="129">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(12/16)順序が逆になりましたが、ビューに一覧で表示するためにファイルパスを使用するためアップロード・ダウンロード機能より先に取り組み予定</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -781,6 +791,9 @@
     <xf numFmtId="56" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,9 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,36 +1123,36 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.0703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.7109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.35546875" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="34" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1184,7 +1194,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1209,7 +1219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1234,7 +1244,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1259,7 +1269,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1309,7 +1319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1334,7 +1344,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1347,7 +1357,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1369,10 +1379,10 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1396,10 +1406,10 @@
         <v>44182</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1424,7 +1434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1449,7 +1459,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1474,7 +1484,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1499,7 +1509,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1520,11 +1530,11 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1545,9 +1555,9 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1568,11 +1578,11 @@
         <v>44182</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1593,11 +1603,11 @@
         <v>44182</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1618,11 +1628,11 @@
         <v>44182</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1639,11 +1649,15 @@
       <c r="F23" s="31">
         <v>44183</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="16">
+        <v>44182</v>
+      </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1665,10 +1679,10 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1689,7 +1703,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1702,7 +1716,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1742,7 +1756,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1753,7 +1767,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1764,7 +1778,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1775,7 +1789,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1786,7 +1800,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1797,7 +1811,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1808,7 +1822,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1819,7 +1833,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1830,7 +1844,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1841,7 +1855,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1852,7 +1866,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1863,7 +1877,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1874,7 +1888,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1885,7 +1899,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1896,7 +1910,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1905,7 +1919,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1914,7 +1928,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1923,7 +1937,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1218\document_push_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D112D8-1D3E-4208-B5B4-38A1DD5C495B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3AEBE-A937-4FB1-9990-DCA69304FAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="510" windowWidth="28770" windowHeight="14460" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS" sheetId="2" r:id="rId1"/>
+    <sheet name="WBS_old1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -496,6 +497,253 @@
     </rPh>
     <rPh sb="69" eb="71">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 ログインエラー時の処理未完了　→要件機能を優先するため打ち切り</t>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/17 セッション情報がログアウト時に削除されているか未確認　→要件機能を優先するため打ち切り</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 バリデーションの表示に不具合あり　→要件機能を優先するため打ち切り</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ヨウケンキノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤田/宮田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤田/石川</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イシカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 単体/複数ファイルアップロード機能完了</t>
+    <rPh sb="6" eb="8">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 ファイル単体のダウンロード機能完了。ファイル名が文字化け対応必要</t>
+    <rPh sb="10" eb="12">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>キノウカンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モジバ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 メソッドは完了しているが、入力方法が未定。他要件機能を優先し時間があれば実装</t>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ニュウリョクホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ヨウケンキノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 単体ファイル削除メソッドは完了し、フォルダ削除の再帰メソッドを実装中。他要件機能を優先し時間があれば実装</t>
+    <rPh sb="6" eb="8">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ジッソウチュウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ホカヨウケン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 機能要件を優先するため打ち切り</t>
+    <rPh sb="6" eb="10">
+      <t>キノウヨウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 カレントディレクトリ情報の保持ロジックが完成。動作確認必要</t>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限による機能制限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キノウセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移メニュー配置</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -560,7 +808,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +836,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -708,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +1066,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1119,30 +1414,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68CB5F-4CD3-4A6C-9062-A6F08E75C3C1}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.375" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="110.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.35546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1448,7 @@
       </c>
       <c r="H2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1181,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1194,7 +1490,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1219,7 +1515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1244,7 +1540,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1269,7 +1565,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1294,7 +1590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1319,7 +1615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1344,7 +1640,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1357,7 +1653,900 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="39">
+        <v>7</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F12" s="42">
+        <v>44179</v>
+      </c>
+      <c r="G12" s="42">
+        <v>44180</v>
+      </c>
+      <c r="H12" s="42">
+        <v>44183</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="39">
+        <v>8</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F13" s="42">
+        <v>44179</v>
+      </c>
+      <c r="G13" s="42">
+        <v>44182</v>
+      </c>
+      <c r="H13" s="42">
+        <v>44182</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="39">
+        <v>9</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F14" s="42">
+        <v>44180</v>
+      </c>
+      <c r="G14" s="42">
+        <v>44180</v>
+      </c>
+      <c r="H14" s="42">
+        <v>44183</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="39">
+        <v>10</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F15" s="42">
+        <v>44180</v>
+      </c>
+      <c r="G15" s="42">
+        <v>44181</v>
+      </c>
+      <c r="H15" s="42">
+        <v>44182</v>
+      </c>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="39">
+        <v>11</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F16" s="42">
+        <v>44180</v>
+      </c>
+      <c r="G16" s="42">
+        <v>44181</v>
+      </c>
+      <c r="H16" s="42">
+        <v>44181</v>
+      </c>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="39">
+        <v>12</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F17" s="42">
+        <v>44180</v>
+      </c>
+      <c r="G17" s="42">
+        <v>44181</v>
+      </c>
+      <c r="H17" s="42">
+        <v>44181</v>
+      </c>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="39">
+        <v>13</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="42">
+        <v>44180</v>
+      </c>
+      <c r="F18" s="42">
+        <v>44182</v>
+      </c>
+      <c r="G18" s="42">
+        <v>44180</v>
+      </c>
+      <c r="H18" s="42">
+        <v>44183</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="39">
+        <v>14</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="42">
+        <v>44180</v>
+      </c>
+      <c r="F19" s="42">
+        <v>44182</v>
+      </c>
+      <c r="G19" s="42">
+        <v>44180</v>
+      </c>
+      <c r="H19" s="42">
+        <v>44183</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="39">
+        <v>15</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="42">
+        <v>44181</v>
+      </c>
+      <c r="F20" s="42">
+        <v>44183</v>
+      </c>
+      <c r="G20" s="42">
+        <v>44182</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="39">
+        <v>16</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="42">
+        <v>44181</v>
+      </c>
+      <c r="F21" s="42">
+        <v>44183</v>
+      </c>
+      <c r="G21" s="42">
+        <v>44182</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="50">
+        <v>17</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="42">
+        <v>44181</v>
+      </c>
+      <c r="F22" s="42">
+        <v>44183</v>
+      </c>
+      <c r="G22" s="42">
+        <v>44182</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="50">
+        <v>18</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="42">
+        <v>44182</v>
+      </c>
+      <c r="F23" s="42">
+        <v>44183</v>
+      </c>
+      <c r="G23" s="42">
+        <v>44182</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="20">
+        <v>19</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="31">
+        <v>44182</v>
+      </c>
+      <c r="F24" s="16">
+        <v>44186</v>
+      </c>
+      <c r="G24" s="16">
+        <v>44181</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="39">
+        <v>20</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42">
+        <v>44179</v>
+      </c>
+      <c r="F25" s="42">
+        <v>44190</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27">
+        <v>21</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="16">
+        <v>44186</v>
+      </c>
+      <c r="F26" s="16">
+        <v>44186</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="16">
+        <v>44186</v>
+      </c>
+      <c r="F27" s="16">
+        <v>44186</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="20">
+        <v>23</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="16">
+        <v>44186</v>
+      </c>
+      <c r="F29" s="16">
+        <v>44186</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="20">
+        <v>24</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F30" s="16">
+        <v>44194</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.35546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
+        <v>44175</v>
+      </c>
+      <c r="F5" s="16">
+        <v>44176</v>
+      </c>
+      <c r="G5" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
+        <v>44175</v>
+      </c>
+      <c r="F6" s="16">
+        <v>44176</v>
+      </c>
+      <c r="G6" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H6" s="16">
+        <v>44179</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
+        <v>44175</v>
+      </c>
+      <c r="F7" s="16">
+        <v>44176</v>
+      </c>
+      <c r="G7" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H7" s="16">
+        <v>44176</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
+        <v>44175</v>
+      </c>
+      <c r="F8" s="16">
+        <v>44176</v>
+      </c>
+      <c r="G8" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
+        <v>44175</v>
+      </c>
+      <c r="F9" s="16">
+        <v>44176</v>
+      </c>
+      <c r="G9" s="16">
+        <v>44176</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="F10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="G10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="H10" s="16">
+        <v>44179</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -1382,7 +2571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -1409,7 +2598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -1434,7 +2623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -1459,7 +2648,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -1484,7 +2673,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -1509,7 +2698,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -1534,7 +2723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -1557,7 +2746,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -1582,7 +2771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -1607,7 +2796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -1632,7 +2821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -1657,7 +2846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -1682,7 +2871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -1703,7 +2892,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -1716,7 +2905,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -1737,7 +2926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -1756,7 +2945,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -1767,7 +2956,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -1778,7 +2967,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -1789,7 +2978,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -1800,7 +2989,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -1811,7 +3000,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -1822,7 +3011,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1833,7 +3022,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -1844,7 +3033,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -1855,7 +3044,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1866,7 +3055,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -1877,7 +3066,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -1888,7 +3077,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -1899,7 +3088,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1910,7 +3099,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1919,7 +3108,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1928,7 +3117,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1937,7 +3126,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1218\document_push_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1221\document_push_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3AEBE-A937-4FB1-9990-DCA69304FAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C48A7-E748-40A3-B3B2-28955AB95E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -744,6 +744,93 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ変更</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ権限変更</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルアップロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルダウンロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト方針検討</t>
+    <rPh sb="3" eb="5">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書作成・レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不具合パターンの洗い出し、原因・対策検討含む</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -968,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,18 +1141,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,6 +1176,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1417,11 +1506,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68CB5F-4CD3-4A6C-9062-A6F08E75C3C1}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
@@ -1439,14 +1528,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -1653,313 +1742,313 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="14.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="39">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="35">
         <v>7</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="42">
+      <c r="D12" s="40"/>
+      <c r="E12" s="38">
         <v>44179</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="38">
         <v>44179</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="38">
         <v>44180</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="38">
         <v>44183</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="39">
+      <c r="A13" s="35">
         <v>8</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="42">
+      <c r="D13" s="40"/>
+      <c r="E13" s="38">
         <v>44179</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="38">
         <v>44179</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="38">
         <v>44182</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="38">
         <v>44182</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="39">
+      <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="42">
+      <c r="D14" s="40"/>
+      <c r="E14" s="38">
         <v>44179</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="38">
         <v>44180</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="38">
         <v>44180</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="38">
         <v>44183</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="39">
+      <c r="A15" s="35">
         <v>10</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="42">
+      <c r="D15" s="41"/>
+      <c r="E15" s="38">
         <v>44179</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="38">
         <v>44180</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="38">
         <v>44181</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="38">
         <v>44182</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="39">
+      <c r="A16" s="35">
         <v>11</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="42">
+      <c r="D16" s="40"/>
+      <c r="E16" s="38">
         <v>44179</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="38">
         <v>44180</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="38">
         <v>44181</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="38">
         <v>44181</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39">
+      <c r="A17" s="35">
         <v>12</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="42">
+      <c r="D17" s="40"/>
+      <c r="E17" s="38">
         <v>44179</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="38">
         <v>44180</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="38">
         <v>44181</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="38">
         <v>44181</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="39">
+      <c r="A18" s="35">
         <v>13</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="42">
+      <c r="D18" s="40"/>
+      <c r="E18" s="38">
         <v>44180</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="38">
         <v>44182</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="38">
         <v>44180</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="38">
         <v>44183</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="43" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="39">
+      <c r="A19" s="35">
         <v>14</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="42">
+      <c r="D19" s="40"/>
+      <c r="E19" s="38">
         <v>44180</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="38">
         <v>44182</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="38">
         <v>44180</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="38">
         <v>44183</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="39">
+      <c r="A20" s="35">
         <v>15</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="42">
+      <c r="D20" s="40"/>
+      <c r="E20" s="38">
         <v>44181</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="38">
         <v>44183</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="38">
         <v>44182</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="39">
+      <c r="A21" s="35">
         <v>16</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="42">
+      <c r="D21" s="40"/>
+      <c r="E21" s="38">
         <v>44181</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="38">
         <v>44183</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="38">
         <v>44182</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50">
+      <c r="A22" s="46">
         <v>17</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="42">
+      <c r="D22" s="40"/>
+      <c r="E22" s="38">
         <v>44181</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="38">
         <v>44183</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="38">
         <v>44182</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50">
+      <c r="A23" s="46">
         <v>18</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="42">
+      <c r="D23" s="40"/>
+      <c r="E23" s="38">
         <v>44182</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="38">
         <v>44183</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="38">
         <v>44182</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="45" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1983,39 +2072,41 @@
       <c r="G24" s="16">
         <v>44181</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16">
+        <v>44186</v>
+      </c>
       <c r="I24" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="39">
+      <c r="A25" s="35">
         <v>20</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42">
+      <c r="D25" s="37"/>
+      <c r="E25" s="38">
         <v>44179</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="38">
         <v>44190</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43" t="s">
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27">
         <v>21</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="47" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2030,13 +2121,13 @@
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="48"/>
+    </row>
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27">
         <v>22</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -2051,7 +2142,7 @@
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
@@ -2071,7 +2162,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -2081,190 +2172,308 @@
       <c r="F29" s="16">
         <v>44186</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="G29" s="16">
+        <v>44186</v>
+      </c>
+      <c r="H29" s="16">
+        <v>44186</v>
+      </c>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20">
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="16">
-        <v>44187</v>
-      </c>
-      <c r="F30" s="16">
-        <v>44194</v>
-      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="E31" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F31" s="16">
+        <v>44188</v>
+      </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F32" s="16">
+        <v>44188</v>
+      </c>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F33" s="16">
+        <v>44188</v>
+      </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="E34" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F34" s="16">
+        <v>44188</v>
+      </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="E35" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F35" s="16">
+        <v>44188</v>
+      </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F36" s="16">
+        <v>44188</v>
+      </c>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="E37" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F37" s="16">
+        <v>44188</v>
+      </c>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="20">
+        <v>25</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="E39" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44194</v>
+      </c>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D40" s="21"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="E40" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F40" s="16">
+        <v>44194</v>
+      </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D41" s="21"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="E41" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F41" s="16">
+        <v>44194</v>
+      </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D42" s="21"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="E42" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F42" s="16">
+        <v>44194</v>
+      </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D43" s="21"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="E43" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F43" s="16">
+        <v>44194</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="D44" s="21"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="E44" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F44" s="16">
+        <v>44194</v>
+      </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="3"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="E45" s="16">
+        <v>44188</v>
+      </c>
+      <c r="F45" s="16">
+        <v>44194</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
@@ -2303,6 +2512,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2332,14 +2542,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -2719,7 +2929,7 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2744,7 +2954,7 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27">

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1221\document_push_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1224\document_push_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C48A7-E748-40A3-B3B2-28955AB95E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A1A428-0A97-4EDB-8840-3F028044E835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68CB5F-4CD3-4A6C-9062-A6F08E75C3C1}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
@@ -2140,8 +2140,12 @@
       <c r="F27" s="16">
         <v>44186</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="G27" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H27" s="16">
+        <v>44187</v>
+      </c>
       <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2210,8 +2214,12 @@
       <c r="F31" s="16">
         <v>44188</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H31" s="16">
+        <v>44188</v>
+      </c>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2229,8 +2237,12 @@
       <c r="F32" s="16">
         <v>44188</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="G32" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H32" s="16">
+        <v>44188</v>
+      </c>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2248,8 +2260,12 @@
       <c r="F33" s="16">
         <v>44188</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="G33" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H33" s="16">
+        <v>44188</v>
+      </c>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2267,8 +2283,12 @@
       <c r="F34" s="16">
         <v>44188</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="G34" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H34" s="16">
+        <v>44188</v>
+      </c>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2286,8 +2306,12 @@
       <c r="F35" s="16">
         <v>44188</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H35" s="16">
+        <v>44188</v>
+      </c>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2305,8 +2329,12 @@
       <c r="F36" s="16">
         <v>44188</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H36" s="16">
+        <v>44188</v>
+      </c>
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2324,8 +2352,12 @@
       <c r="F37" s="16">
         <v>44188</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="16">
+        <v>44187</v>
+      </c>
+      <c r="H37" s="16">
+        <v>44188</v>
+      </c>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2360,7 +2392,9 @@
       <c r="F39" s="16">
         <v>44194</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="16">
+        <v>44189</v>
+      </c>
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
@@ -2379,7 +2413,9 @@
       <c r="F40" s="16">
         <v>44194</v>
       </c>
-      <c r="G40" s="24"/>
+      <c r="G40" s="16">
+        <v>44189</v>
+      </c>
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
@@ -2398,7 +2434,9 @@
       <c r="F41" s="16">
         <v>44194</v>
       </c>
-      <c r="G41" s="24"/>
+      <c r="G41" s="16">
+        <v>44189</v>
+      </c>
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
@@ -2417,7 +2455,9 @@
       <c r="F42" s="16">
         <v>44194</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="16">
+        <v>44189</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
@@ -2436,7 +2476,9 @@
       <c r="F43" s="16">
         <v>44194</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="16">
+        <v>44189</v>
+      </c>
       <c r="H43" s="24"/>
       <c r="I43" s="22"/>
     </row>
@@ -2455,7 +2497,9 @@
       <c r="F44" s="16">
         <v>44194</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="16">
+        <v>44189</v>
+      </c>
       <c r="H44" s="24"/>
       <c r="I44" s="22"/>
     </row>
@@ -2474,7 +2518,9 @@
       <c r="F45" s="16">
         <v>44194</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="16">
+        <v>44189</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1224\document_push_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A1A428-0A97-4EDB-8840-3F028044E835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD19715B-4565-4F49-92B3-6AC5ECD19144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-10920" yWindow="1860" windowWidth="19440" windowHeight="12204" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="2" r:id="rId1"/>
-    <sheet name="WBS_old1" sheetId="1" r:id="rId2"/>
+    <sheet name="WBS" sheetId="4" r:id="rId1"/>
+    <sheet name="WBS_old2" sheetId="3" r:id="rId2"/>
+    <sheet name="WBS_old1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -831,6 +840,507 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォルダ単位でのアップロード</t>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード時の単体ファイル容量によるバリデーション</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード時の複数ファイルの合計容量によるバリデーション</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数ファイルを選択してのダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動処理の実装</t>
+    <rPh sb="0" eb="4">
+      <t>イドウショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動時の同名ファイル・フォルダとの競合処理実装</t>
+    <rPh sb="0" eb="3">
+      <t>イドウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>キョウゴウショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除処理の実装</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除前のポップアップ通知実装</t>
+    <rPh sb="0" eb="3">
+      <t>サクジョマエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更処理の実装</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル・フォルダ移動</t>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル・フォルダ削除</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル・フォルダ名称変更</t>
+    <rPh sb="9" eb="13">
+      <t>メイショウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォルダ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ管理全般</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ情報更新</t>
+    <rPh sb="3" eb="7">
+      <t>ジョウホウコウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体のデザイン統一</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外処理の実装</t>
+    <rPh sb="0" eb="4">
+      <t>レイガイショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成処理の実装</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成時の名称付与</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同名フォルダとの競合処理実装</t>
+    <rPh sb="0" eb="2">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザごとの権限による機能制限未実装</t>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>キノウセイゲン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ情報更新の入力バリデーション機能未実装</t>
+    <rPh sb="3" eb="7">
+      <t>ジョウホウコウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ名、パスワードの更新完了通知未実装</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>コウシンカンリョウツウチ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面'戻る'ボタンのリンク先未設定</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ミセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザIDに半角英数字254文字以下のバリデーション未実装</t>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッション情報の破棄未確認</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン認証のバリデーション機能未実装</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン時の権限付与</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同名ファイルが存在する場合の確認処理</t>
+    <rPh sb="0" eb="2">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カクニンショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名称変更時の同名ファイル・フォルダとの競合処理実装</t>
+    <rPh sb="0" eb="5">
+      <t>メイショウヘンコウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <rPh sb="0" eb="4">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ権限変更・削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Junitテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Seleniumテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合テスト(仕様書作成)</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>シヨウショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル操作</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポップアップ表示の共通処理</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Seleniumを使用したテストが画面上での動作を確認する結合テストに値すると考えていますので、
+以前作成済みのテスト仕様書を整理し、Seleniumで追加で実施が必要な項目をリストアップして作成します。
+→作成期間としては3日ほどもあれば整理と追記もできると考えています。</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="49" eb="54">
+      <t>イゼンサクセイズ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体を通して修正が必要な項目のため、新規追加分は都度記載し、既存部分については動作確認時にリファクタリングとともに加筆予定</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>シンキツイカブン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ツドキサイ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>キソンブブン</t>
+    </rPh>
+    <rPh sb="39" eb="44">
+      <t>ドウサカクニンジ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>カヒツヨテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -843,7 +1353,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +1404,43 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -939,7 +1486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1049,13 +1596,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,6 +1815,123 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,31 +2246,1241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68CB5F-4CD3-4A6C-9062-A6F08E75C3C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918F232-5909-4A2A-A45A-F65522D71E4A}">
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.09765625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="24" style="61" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="61" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="64" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" style="64" customWidth="1"/>
+    <col min="6" max="9" width="9.5" style="67" customWidth="1"/>
+    <col min="10" max="10" width="110.69921875" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+    </row>
+    <row r="5" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" s="77">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80">
+        <v>44229</v>
+      </c>
+      <c r="G5" s="80">
+        <v>44244</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+    </row>
+    <row r="6" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A6" s="77">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80">
+        <v>44229</v>
+      </c>
+      <c r="G6" s="80">
+        <v>44229</v>
+      </c>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+    </row>
+    <row r="7" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A7" s="77">
+        <v>3</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80">
+        <v>44229</v>
+      </c>
+      <c r="G7" s="80">
+        <v>44232</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+    </row>
+    <row r="8" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A8" s="77">
+        <f>ROW()-4</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80">
+        <v>44230</v>
+      </c>
+      <c r="G8" s="80">
+        <v>44231</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+    </row>
+    <row r="9" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A9" s="77">
+        <f t="shared" ref="A9:A29" si="1">ROW()-4</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80">
+        <v>44230</v>
+      </c>
+      <c r="G9" s="80">
+        <v>44230</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+    </row>
+    <row r="10" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A10" s="77">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80">
+        <v>44244</v>
+      </c>
+      <c r="G10" s="80">
+        <v>44244</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+    </row>
+    <row r="11" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A11" s="77">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80">
+        <v>44244</v>
+      </c>
+      <c r="G11" s="80">
+        <v>44244</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+    </row>
+    <row r="12" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" s="77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80">
+        <v>44230</v>
+      </c>
+      <c r="G12" s="80">
+        <v>44231</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+    </row>
+    <row r="13" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A13" s="77">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80">
+        <v>44235</v>
+      </c>
+      <c r="G13" s="80">
+        <v>44235</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+    </row>
+    <row r="14" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" s="77">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80">
+        <v>44235</v>
+      </c>
+      <c r="G14" s="80">
+        <v>44235</v>
+      </c>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+    </row>
+    <row r="15" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" s="77">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80">
+        <v>44235</v>
+      </c>
+      <c r="G15" s="80">
+        <v>44235</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+    </row>
+    <row r="16" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A16" s="77">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80">
+        <v>44235</v>
+      </c>
+      <c r="G16" s="80">
+        <v>44235</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+    </row>
+    <row r="17" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" s="77">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80">
+        <v>44236</v>
+      </c>
+      <c r="G17" s="80">
+        <v>44236</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+    </row>
+    <row r="18" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A18" s="77">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80">
+        <v>44236</v>
+      </c>
+      <c r="G18" s="80">
+        <v>44236</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" s="77">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80">
+        <v>44236</v>
+      </c>
+      <c r="G19" s="80">
+        <v>44236</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A20" s="77">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80">
+        <v>44236</v>
+      </c>
+      <c r="G20" s="80">
+        <v>44236</v>
+      </c>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A21" s="77">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80">
+        <v>44236</v>
+      </c>
+      <c r="G21" s="80">
+        <v>44236</v>
+      </c>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+    </row>
+    <row r="22" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A22" s="77">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="90">
+        <v>44239</v>
+      </c>
+      <c r="G22" s="90">
+        <v>44242</v>
+      </c>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+    </row>
+    <row r="23" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A23" s="77">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="90">
+        <v>44237</v>
+      </c>
+      <c r="G23" s="90">
+        <v>44237</v>
+      </c>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+    </row>
+    <row r="24" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A24" s="77">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="90">
+        <v>44237</v>
+      </c>
+      <c r="G24" s="90">
+        <v>44237</v>
+      </c>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+    </row>
+    <row r="25" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A25" s="77">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="90">
+        <v>44229</v>
+      </c>
+      <c r="G25" s="90">
+        <v>44229</v>
+      </c>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A26" s="77">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="90">
+        <v>44237</v>
+      </c>
+      <c r="G26" s="90">
+        <v>44237</v>
+      </c>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+    </row>
+    <row r="27" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A27" s="77">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="90">
+        <v>44239</v>
+      </c>
+      <c r="G27" s="90">
+        <v>44242</v>
+      </c>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+    </row>
+    <row r="28" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A28" s="77">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="90">
+        <v>44239</v>
+      </c>
+      <c r="G28" s="90">
+        <v>44242</v>
+      </c>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+    </row>
+    <row r="29" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A29" s="77">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="90">
+        <v>44239</v>
+      </c>
+      <c r="G29" s="90">
+        <v>44242</v>
+      </c>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+    </row>
+    <row r="30" spans="1:12" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" s="77">
+        <f>ROW()-5</f>
+        <v>26</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="91"/>
+      <c r="F31" s="90">
+        <v>44245</v>
+      </c>
+      <c r="G31" s="90">
+        <v>44245</v>
+      </c>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+    </row>
+    <row r="32" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" s="77">
+        <f>ROW()-5</f>
+        <v>27</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="91"/>
+      <c r="F32" s="90">
+        <v>44245</v>
+      </c>
+      <c r="G32" s="90">
+        <v>44245</v>
+      </c>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+    </row>
+    <row r="33" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A33" s="77">
+        <f t="shared" ref="A33:A36" si="2">ROW()-5</f>
+        <v>28</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="91"/>
+      <c r="F33" s="90">
+        <v>44246</v>
+      </c>
+      <c r="G33" s="90">
+        <v>44246</v>
+      </c>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+    </row>
+    <row r="34" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A34" s="77">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="91"/>
+      <c r="F34" s="90">
+        <v>44246</v>
+      </c>
+      <c r="G34" s="90">
+        <v>44246</v>
+      </c>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+    </row>
+    <row r="35" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A35" s="77">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="91"/>
+      <c r="F35" s="90">
+        <v>44249</v>
+      </c>
+      <c r="G35" s="90">
+        <v>44249</v>
+      </c>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+    </row>
+    <row r="36" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A36" s="77">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="91"/>
+      <c r="F36" s="90">
+        <v>44249</v>
+      </c>
+      <c r="G36" s="90">
+        <v>44249</v>
+      </c>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+    </row>
+    <row r="37" spans="1:12" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+    </row>
+    <row r="38" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A38" s="77">
+        <v>26</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="91"/>
+      <c r="F38" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G38" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+    </row>
+    <row r="39" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A39" s="77">
+        <v>28</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="91"/>
+      <c r="F39" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G39" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+    </row>
+    <row r="40" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A40" s="77">
+        <v>30</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="91"/>
+      <c r="F40" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G40" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+    </row>
+    <row r="41" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A41" s="77">
+        <f t="shared" ref="A41:A45" si="3">ROW()-5</f>
+        <v>36</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="91"/>
+      <c r="F41" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G41" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+    </row>
+    <row r="42" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A42" s="77">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G42" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+    </row>
+    <row r="43" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A43" s="77">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="91"/>
+      <c r="F43" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G43" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+    </row>
+    <row r="44" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A44" s="77">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G44" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+    </row>
+    <row r="45" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A45" s="77">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="91"/>
+      <c r="F45" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G45" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+    </row>
+    <row r="46" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+    </row>
+    <row r="47" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J38:J45"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D05643-D796-4B78-A6B1-BA19BBAFA427}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="110.7109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.35546875" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" s="52" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +3490,7 @@
       </c>
       <c r="H2" s="53"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +3519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1579,7 +3532,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1604,7 +3557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1629,7 +3582,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1654,7 +3607,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1679,7 +3632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1704,7 +3657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1729,7 +3682,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -1742,7 +3695,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="35">
         <v>7</v>
       </c>
@@ -1769,7 +3722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="35">
         <v>8</v>
       </c>
@@ -1796,7 +3749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="35">
         <v>9</v>
       </c>
@@ -1823,7 +3776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="35">
         <v>10</v>
       </c>
@@ -1848,7 +3801,7 @@
       </c>
       <c r="I15" s="41"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35">
         <v>11</v>
       </c>
@@ -1873,7 +3826,7 @@
       </c>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -1898,7 +3851,7 @@
       </c>
       <c r="I17" s="41"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="35">
         <v>13</v>
       </c>
@@ -1925,7 +3878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="35">
         <v>14</v>
       </c>
@@ -1952,7 +3905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="35">
         <v>15</v>
       </c>
@@ -1977,7 +3930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="35">
         <v>16</v>
       </c>
@@ -2002,7 +3955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="46">
         <v>17</v>
       </c>
@@ -2027,7 +3980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="46">
         <v>18</v>
       </c>
@@ -2052,7 +4005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -2079,7 +4032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35">
         <v>20</v>
       </c>
@@ -2102,7 +4055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27">
         <v>21</v>
       </c>
@@ -2123,7 +4076,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27">
         <v>22</v>
       </c>
@@ -2148,7 +4101,7 @@
       </c>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>24</v>
@@ -2161,7 +4114,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <v>23</v>
       </c>
@@ -2184,7 +4137,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <v>24</v>
       </c>
@@ -2199,7 +4152,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
         <v>62</v>
@@ -2222,7 +4175,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
         <v>13</v>
@@ -2245,7 +4198,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
         <v>63</v>
@@ -2268,7 +4221,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="51"/>
       <c r="B34" s="18" t="s">
         <v>64</v>
@@ -2291,7 +4244,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="51"/>
       <c r="B35" s="18" t="s">
         <v>65</v>
@@ -2314,7 +4267,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>66</v>
@@ -2337,7 +4290,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="51"/>
       <c r="B37" s="20" t="s">
         <v>67</v>
@@ -2360,7 +4313,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20">
         <v>25</v>
       </c>
@@ -2377,7 +4330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="50"/>
       <c r="B39" s="18" t="s">
         <v>62</v>
@@ -2398,7 +4351,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="51"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
@@ -2419,7 +4372,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="51"/>
       <c r="B41" s="18" t="s">
         <v>63</v>
@@ -2440,7 +4393,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="51"/>
       <c r="B42" s="18" t="s">
         <v>64</v>
@@ -2461,7 +4414,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="51"/>
       <c r="B43" s="18" t="s">
         <v>65</v>
@@ -2482,7 +4435,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
         <v>66</v>
@@ -2503,7 +4456,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="51"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -2524,7 +4477,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2533,7 +4486,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2542,7 +4495,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2562,7 +4515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B332DC-98BE-42DA-8D60-FD4EB6E9D23E}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -2571,23 +4524,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.7109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.35546875" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" s="52" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +4550,7 @@
       </c>
       <c r="H2" s="53"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2626,7 +4579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -2639,7 +4592,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2664,7 +4617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -2689,7 +4642,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2714,7 +4667,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2739,7 +4692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -2764,7 +4717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2789,7 +4742,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -2802,7 +4755,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -2827,7 +4780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -2854,7 +4807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -2879,7 +4832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -2904,7 +4857,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -2929,7 +4882,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -2954,7 +4907,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -2979,7 +4932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -3002,7 +4955,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -3027,7 +4980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -3052,7 +5005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -3077,7 +5030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -3102,7 +5055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -3127,7 +5080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -3148,7 +5101,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -3161,7 +5114,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -3182,7 +5135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -3201,7 +5154,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -3212,7 +5165,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -3223,7 +5176,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -3234,7 +5187,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -3245,7 +5198,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -3256,7 +5209,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -3267,7 +5220,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -3278,7 +5231,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -3289,7 +5242,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -3300,7 +5253,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -3311,7 +5264,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -3322,7 +5275,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -3333,7 +5286,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -3344,7 +5297,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -3355,7 +5308,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3364,7 +5317,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3373,7 +5326,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3382,7 +5335,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD19715B-4565-4F49-92B3-6AC5ECD19144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F8507-F94D-423B-9046-FE3399200A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10920" yWindow="1860" windowWidth="19440" windowHeight="12204" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="123">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1311,7 +1306,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全体を通して修正が必要な項目のため、新規追加分は都度記載し、既存部分については動作確認時にリファクタリングとともに加筆予定</t>
+    <t>全体を通して修正が必要な項目のため、新規追加分は都度記載し、既存部分については修正時に加筆予定</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
     </rPh>
@@ -1336,11 +1331,116 @@
     <rPh sb="30" eb="34">
       <t>キソンブブン</t>
     </rPh>
-    <rPh sb="39" eb="44">
-      <t>ドウサカクニンジ</t>
-    </rPh>
-    <rPh sb="57" eb="61">
+    <rPh sb="39" eb="42">
+      <t>シュウセイジ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
       <t>カヒツヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→実施せず</t>
+    <rPh sb="1" eb="3">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ情報登録</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用頻度の高い変数について定数化する</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヒンド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>テイスウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワーキングディレクトリの外部定義化</t>
+    <rPh sb="12" eb="17">
+      <t>ガイブテイギカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Model or ModelAndViewか、など</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/2/2時点で、完了しているものの、ログイン画面と新規登録画面でcssが反映されず、その原因を調査中</t>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*2021/2/2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用するメソッドの統一、引数の調整</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現状、プロジェクトフォルダ内にワーキングディレクトリがあるため、運用上好ましくないため修正予定</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ウンヨウジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1353,7 +1453,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,8 +1541,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1589,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1681,7 +1793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,6 +1916,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,123 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2247,1091 +2380,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918F232-5909-4A2A-A45A-F65522D71E4A}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="24" style="61" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="61" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="64" customWidth="1"/>
-    <col min="5" max="5" width="4.8984375" style="64" customWidth="1"/>
-    <col min="6" max="9" width="9.5" style="67" customWidth="1"/>
-    <col min="10" max="10" width="110.69921875" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="61"/>
+    <col min="1" max="1" width="4.125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="24" style="57" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="57" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="60" customWidth="1"/>
+    <col min="6" max="9" width="9.5" style="63" customWidth="1"/>
+    <col min="10" max="10" width="110.75" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="69" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="J1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="62" t="s">
+      <c r="I2" s="95"/>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71" t="s">
+    <row r="4" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-    </row>
-    <row r="5" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="77">
-        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="71">
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80">
+      <c r="D5" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74">
         <v>44229</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="74">
         <v>44244</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-    </row>
-    <row r="6" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="77">
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+    </row>
+    <row r="6" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80">
+      <c r="D6" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74">
         <v>44229</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="74">
         <v>44229</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-    </row>
-    <row r="7" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="77">
+      <c r="H6" s="74">
+        <v>44229</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74">
+        <v>44230</v>
+      </c>
+      <c r="G7" s="74">
+        <v>44230</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74">
+        <v>44245</v>
+      </c>
+      <c r="G8" s="74">
+        <v>44245</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74">
+        <v>44230</v>
+      </c>
+      <c r="G9" s="74">
+        <v>44230</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="71">
+        <v>3</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C10" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80">
-        <v>44229</v>
-      </c>
-      <c r="G7" s="80">
-        <v>44232</v>
-      </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-    </row>
-    <row r="8" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="77">
+      <c r="D10" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74">
+        <v>44230</v>
+      </c>
+      <c r="G10" s="74">
+        <v>44231</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="71">
         <f>ROW()-4</f>
-        <v>4</v>
-      </c>
-      <c r="B8" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C11" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80">
-        <v>44230</v>
-      </c>
-      <c r="G8" s="80">
-        <v>44231</v>
-      </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-    </row>
-    <row r="9" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A9" s="77">
-        <f t="shared" ref="A9:A29" si="1">ROW()-4</f>
-        <v>5</v>
-      </c>
-      <c r="B9" s="78" t="s">
+      <c r="D11" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74">
+        <v>44246</v>
+      </c>
+      <c r="G11" s="74">
+        <v>44246</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="71">
+        <f t="shared" ref="A12:A32" si="1">ROW()-4</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C12" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80">
-        <v>44230</v>
-      </c>
-      <c r="G9" s="80">
-        <v>44230</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-    </row>
-    <row r="10" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A10" s="77">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80">
-        <v>44244</v>
-      </c>
-      <c r="G10" s="80">
-        <v>44244</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-    </row>
-    <row r="11" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A11" s="77">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80">
-        <v>44244</v>
-      </c>
-      <c r="G11" s="80">
-        <v>44244</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-    </row>
-    <row r="12" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="77">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80">
-        <v>44230</v>
-      </c>
-      <c r="G12" s="80">
-        <v>44231</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-    </row>
-    <row r="13" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A13" s="77">
+      <c r="D12" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74">
+        <v>44235</v>
+      </c>
+      <c r="G12" s="74">
+        <v>44235</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80">
-        <v>44235</v>
-      </c>
-      <c r="G13" s="80">
-        <v>44235</v>
-      </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-    </row>
-    <row r="14" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="77">
+      <c r="B13" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74">
+        <v>44244</v>
+      </c>
+      <c r="G13" s="74">
+        <v>44245</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80">
-        <v>44235</v>
-      </c>
-      <c r="G14" s="80">
-        <v>44235</v>
-      </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-    </row>
-    <row r="15" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="77">
+      <c r="B14" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74">
+        <v>44244</v>
+      </c>
+      <c r="G14" s="74">
+        <v>44245</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80">
-        <v>44235</v>
-      </c>
-      <c r="G15" s="80">
-        <v>44235</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-    </row>
-    <row r="16" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A16" s="77">
+      <c r="B15" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74">
+        <v>44231</v>
+      </c>
+      <c r="G15" s="74">
+        <v>44232</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80">
+      <c r="B16" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74">
         <v>44235</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="74">
         <v>44235</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-    </row>
-    <row r="17" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A17" s="77">
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80">
-        <v>44236</v>
-      </c>
-      <c r="G17" s="80">
-        <v>44236</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-    </row>
-    <row r="18" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A18" s="77">
+      <c r="B17" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74">
+        <v>44235</v>
+      </c>
+      <c r="G17" s="74">
+        <v>44235</v>
+      </c>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80">
-        <v>44236</v>
-      </c>
-      <c r="G18" s="80">
-        <v>44236</v>
-      </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A19" s="77">
+      <c r="B18" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74">
+        <v>44235</v>
+      </c>
+      <c r="G18" s="74">
+        <v>44235</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80">
-        <v>44236</v>
-      </c>
-      <c r="G19" s="80">
-        <v>44236</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-    </row>
-    <row r="20" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A20" s="77">
+      <c r="B19" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74">
+        <v>44235</v>
+      </c>
+      <c r="G19" s="74">
+        <v>44235</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80">
+      <c r="B20" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74">
         <v>44236</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="74">
         <v>44236</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-    </row>
-    <row r="21" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A21" s="77">
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+    </row>
+    <row r="21" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80">
+      <c r="B21" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74">
         <v>44236</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="74">
         <v>44236</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-    </row>
-    <row r="22" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A22" s="77">
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+    </row>
+    <row r="22" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="90">
-        <v>44239</v>
-      </c>
-      <c r="G22" s="90">
-        <v>44242</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-    </row>
-    <row r="23" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A23" s="77">
+      <c r="B22" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74">
+        <v>44236</v>
+      </c>
+      <c r="G22" s="74">
+        <v>44236</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="90">
-        <v>44237</v>
-      </c>
-      <c r="G23" s="90">
-        <v>44237</v>
-      </c>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-    </row>
-    <row r="24" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A24" s="77">
+      <c r="B23" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74">
+        <v>44236</v>
+      </c>
+      <c r="G23" s="74">
+        <v>44236</v>
+      </c>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+    </row>
+    <row r="24" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="90">
-        <v>44237</v>
-      </c>
-      <c r="G24" s="90">
-        <v>44237</v>
-      </c>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-    </row>
-    <row r="25" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A25" s="77">
+      <c r="B24" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74">
+        <v>44236</v>
+      </c>
+      <c r="G24" s="74">
+        <v>44236</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+    </row>
+    <row r="25" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="71">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="90">
-        <v>44229</v>
-      </c>
-      <c r="G25" s="90">
-        <v>44229</v>
-      </c>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
+      <c r="B25" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="82">
+        <v>44239</v>
+      </c>
+      <c r="G25" s="82">
+        <v>44242</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-    </row>
-    <row r="26" spans="1:12" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A26" s="77">
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+    </row>
+    <row r="26" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="71">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="90">
+      <c r="B26" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="83"/>
+      <c r="F26" s="82">
         <v>44237</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="82">
         <v>44237</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-    </row>
-    <row r="27" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A27" s="77">
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+    </row>
+    <row r="27" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="71">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="90">
-        <v>44239</v>
-      </c>
-      <c r="G27" s="90">
-        <v>44242</v>
-      </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-    </row>
-    <row r="28" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A28" s="77">
+      <c r="B27" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="83"/>
+      <c r="F27" s="82">
+        <v>44237</v>
+      </c>
+      <c r="G27" s="82">
+        <v>44237</v>
+      </c>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+    </row>
+    <row r="28" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="71">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="90">
-        <v>44239</v>
-      </c>
-      <c r="G28" s="90">
-        <v>44242</v>
-      </c>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-    </row>
-    <row r="29" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A29" s="77">
+      <c r="B28" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="83"/>
+      <c r="F28" s="82">
+        <v>44229</v>
+      </c>
+      <c r="G28" s="82">
+        <v>44229</v>
+      </c>
+      <c r="H28" s="82">
+        <v>44229</v>
+      </c>
+      <c r="I28" s="82">
+        <v>44229</v>
+      </c>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+    </row>
+    <row r="29" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="71">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="83"/>
+      <c r="F29" s="82">
+        <v>44237</v>
+      </c>
+      <c r="G29" s="82">
+        <v>44237</v>
+      </c>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="71">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="83"/>
+      <c r="F30" s="82">
+        <v>44242</v>
+      </c>
+      <c r="G30" s="82">
+        <v>44243</v>
+      </c>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+    </row>
+    <row r="31" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="71">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C31" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="82">
+        <v>44242</v>
+      </c>
+      <c r="G31" s="82">
+        <v>44243</v>
+      </c>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+    </row>
+    <row r="32" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="71">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="90">
+      <c r="D32" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="83"/>
+      <c r="F32" s="82">
         <v>44239</v>
       </c>
-      <c r="G29" s="90">
+      <c r="G32" s="82">
         <v>44242</v>
       </c>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-    </row>
-    <row r="30" spans="1:12" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71" t="s">
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="33" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-    </row>
-    <row r="31" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A31" s="77">
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A34" s="71">
         <f>ROW()-5</f>
+        <v>29</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="83"/>
+      <c r="F34" s="82">
+        <v>44249</v>
+      </c>
+      <c r="G34" s="82">
+        <v>44249</v>
+      </c>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+    </row>
+    <row r="35" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="71">
+        <f>ROW()-5</f>
+        <v>30</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="83"/>
+      <c r="F35" s="82">
+        <v>44249</v>
+      </c>
+      <c r="G35" s="82">
+        <v>44249</v>
+      </c>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="36" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="71">
+        <f t="shared" ref="A36:A40" si="2">ROW()-5</f>
+        <v>31</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="83"/>
+      <c r="F36" s="82">
+        <v>44251</v>
+      </c>
+      <c r="G36" s="82">
+        <v>44251</v>
+      </c>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="71">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="83"/>
+      <c r="F37" s="82">
+        <v>44251</v>
+      </c>
+      <c r="G37" s="82">
+        <v>44251</v>
+      </c>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="71">
+        <v>30</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="83"/>
+      <c r="F38" s="82">
+        <v>44252</v>
+      </c>
+      <c r="G38" s="82">
+        <v>44252</v>
+      </c>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+    </row>
+    <row r="39" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="71">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="83"/>
+      <c r="F39" s="82">
+        <v>44252</v>
+      </c>
+      <c r="G39" s="82">
+        <v>44252</v>
+      </c>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="71">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="83"/>
+      <c r="F40" s="82">
+        <v>44253</v>
+      </c>
+      <c r="G40" s="82">
+        <v>44253</v>
+      </c>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+    </row>
+    <row r="41" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+    </row>
+    <row r="42" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="87">
         <v>26</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B42" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="90">
-        <v>44245</v>
-      </c>
-      <c r="G31" s="90">
-        <v>44245</v>
-      </c>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-    </row>
-    <row r="32" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A32" s="77">
-        <f>ROW()-5</f>
-        <v>27</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="90">
-        <v>44245</v>
-      </c>
-      <c r="G32" s="90">
-        <v>44245</v>
-      </c>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-    </row>
-    <row r="33" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A33" s="77">
-        <f t="shared" ref="A33:A36" si="2">ROW()-5</f>
-        <v>28</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="90">
-        <v>44246</v>
-      </c>
-      <c r="G33" s="90">
-        <v>44246</v>
-      </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A34" s="77">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="90">
-        <v>44246</v>
-      </c>
-      <c r="G34" s="90">
-        <v>44246</v>
-      </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-    </row>
-    <row r="35" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A35" s="77">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="90">
-        <v>44249</v>
-      </c>
-      <c r="G35" s="90">
-        <v>44249</v>
-      </c>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-    </row>
-    <row r="36" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A36" s="77">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="90">
-        <v>44249</v>
-      </c>
-      <c r="G36" s="90">
-        <v>44249</v>
-      </c>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-    </row>
-    <row r="37" spans="1:12" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-    </row>
-    <row r="38" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A38" s="77">
-        <v>26</v>
-      </c>
-      <c r="B38" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="78" t="s">
+      <c r="C42" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G38" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-    </row>
-    <row r="39" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A39" s="77">
-        <v>28</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G39" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-    </row>
-    <row r="40" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A40" s="77">
-        <v>30</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G40" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-    </row>
-    <row r="41" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A41" s="77">
-        <f t="shared" ref="A41:A45" si="3">ROW()-5</f>
-        <v>36</v>
-      </c>
-      <c r="B41" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G41" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-    </row>
-    <row r="42" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A42" s="77">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="91"/>
+      <c r="D42" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="89"/>
       <c r="F42" s="90">
         <v>44251</v>
       </c>
@@ -3340,25 +3488,26 @@
       </c>
       <c r="H42" s="90"/>
       <c r="I42" s="90"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-    </row>
-    <row r="43" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A43" s="77">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="78" t="s">
+      <c r="J42" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+    </row>
+    <row r="43" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="87">
+        <v>28</v>
+      </c>
+      <c r="B43" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="91"/>
+      <c r="D43" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="89"/>
       <c r="F43" s="90">
         <v>44251</v>
       </c>
@@ -3367,25 +3516,24 @@
       </c>
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-    </row>
-    <row r="44" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A44" s="77">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B44" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="78" t="s">
+      <c r="J43" s="97"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+    </row>
+    <row r="44" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="87">
+        <v>30</v>
+      </c>
+      <c r="B44" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="91"/>
+      <c r="D44" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="89"/>
       <c r="F44" s="90">
         <v>44251</v>
       </c>
@@ -3394,25 +3542,25 @@
       </c>
       <c r="H44" s="90"/>
       <c r="I44" s="90"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-    </row>
-    <row r="45" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A45" s="77">
-        <f t="shared" si="3"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+    </row>
+    <row r="45" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="87">
+        <f t="shared" ref="A45:A49" si="3">ROW()-5</f>
         <v>40</v>
       </c>
-      <c r="B45" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="78" t="s">
+      <c r="B45" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="91"/>
+      <c r="D45" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="89"/>
       <c r="F45" s="90">
         <v>44251</v>
       </c>
@@ -3421,34 +3569,143 @@
       </c>
       <c r="H45" s="90"/>
       <c r="I45" s="90"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-    </row>
-    <row r="46" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-    </row>
-    <row r="47" spans="1:12" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+    </row>
+    <row r="46" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="87">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="89"/>
+      <c r="F46" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G46" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+    </row>
+    <row r="47" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A47" s="87">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="89"/>
+      <c r="F47" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G47" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+    </row>
+    <row r="48" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A48" s="87">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="89"/>
+      <c r="F48" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G48" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+    </row>
+    <row r="49" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="87">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="89"/>
+      <c r="F49" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G49" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+    </row>
+    <row r="50" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+    </row>
+    <row r="51" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J38:J45"/>
+    <mergeCell ref="J42:J49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3463,34 +3720,34 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.3984375" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="52" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H2" s="99"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3519,7 +3776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -3532,7 +3789,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -3557,7 +3814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -3582,7 +3839,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -3607,7 +3864,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -3632,7 +3889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -3657,7 +3914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -3682,7 +3939,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -3695,7 +3952,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>7</v>
       </c>
@@ -3722,7 +3979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>8</v>
       </c>
@@ -3749,7 +4006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>9</v>
       </c>
@@ -3776,7 +4033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>10</v>
       </c>
@@ -3801,7 +4058,7 @@
       </c>
       <c r="I15" s="41"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>11</v>
       </c>
@@ -3826,7 +4083,7 @@
       </c>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -3851,7 +4108,7 @@
       </c>
       <c r="I17" s="41"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>13</v>
       </c>
@@ -3878,7 +4135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>14</v>
       </c>
@@ -3905,7 +4162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>15</v>
       </c>
@@ -3930,7 +4187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>16</v>
       </c>
@@ -3955,7 +4212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="46">
         <v>17</v>
       </c>
@@ -3980,7 +4237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="46">
         <v>18</v>
       </c>
@@ -4005,7 +4262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -4032,7 +4289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>20</v>
       </c>
@@ -4055,7 +4312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27">
         <v>21</v>
       </c>
@@ -4076,7 +4333,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27">
         <v>22</v>
       </c>
@@ -4101,7 +4358,7 @@
       </c>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>24</v>
@@ -4114,7 +4371,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>23</v>
       </c>
@@ -4137,7 +4394,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>24</v>
       </c>
@@ -4152,7 +4409,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
         <v>62</v>
@@ -4175,7 +4432,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
         <v>13</v>
@@ -4198,7 +4455,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
         <v>63</v>
@@ -4221,7 +4478,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
       <c r="B34" s="18" t="s">
         <v>64</v>
@@ -4244,7 +4501,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
       <c r="B35" s="18" t="s">
         <v>65</v>
@@ -4267,7 +4524,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>66</v>
@@ -4290,7 +4547,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
       <c r="B37" s="20" t="s">
         <v>67</v>
@@ -4313,7 +4570,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>25</v>
       </c>
@@ -4330,7 +4587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="50"/>
       <c r="B39" s="18" t="s">
         <v>62</v>
@@ -4351,7 +4608,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
@@ -4372,7 +4629,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
       <c r="B41" s="18" t="s">
         <v>63</v>
@@ -4393,7 +4650,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51"/>
       <c r="B42" s="18" t="s">
         <v>64</v>
@@ -4414,7 +4671,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
       <c r="B43" s="18" t="s">
         <v>65</v>
@@ -4435,7 +4692,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
         <v>66</v>
@@ -4456,7 +4713,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -4477,7 +4734,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4486,7 +4743,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4495,7 +4752,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4524,33 +4781,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.3984375" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="52" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H2" s="99"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4579,7 +4836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -4592,7 +4849,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -4617,7 +4874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -4642,7 +4899,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -4667,7 +4924,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -4692,7 +4949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -4717,7 +4974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -4742,7 +4999,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -4755,7 +5012,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -4780,7 +5037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -4807,7 +5064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -4832,7 +5089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -4857,7 +5114,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -4882,7 +5139,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -4907,7 +5164,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -4928,11 +5185,11 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="100" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -4953,9 +5210,9 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="101"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -4980,7 +5237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -5005,7 +5262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -5030,7 +5287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -5055,7 +5312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -5080,7 +5337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -5101,7 +5358,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -5114,7 +5371,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -5135,7 +5392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -5154,7 +5411,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -5165,7 +5422,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -5176,7 +5433,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -5187,7 +5444,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -5198,7 +5455,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -5209,7 +5466,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -5220,7 +5477,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -5231,7 +5488,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -5242,7 +5499,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -5253,7 +5510,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -5264,7 +5521,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -5275,7 +5532,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -5286,7 +5543,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -5297,7 +5554,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -5308,7 +5565,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5317,7 +5574,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -5326,7 +5583,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5335,7 +5592,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F8507-F94D-423B-9046-FE3399200A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C305004E-5725-444B-A426-18FEF1E63924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -2384,7 +2384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2556,8 +2556,12 @@
       <c r="G7" s="74">
         <v>44230</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="H7" s="74">
+        <v>44230</v>
+      </c>
+      <c r="I7" s="74">
+        <v>44230</v>
+      </c>
       <c r="J7" s="75" t="s">
         <v>122</v>
       </c>
@@ -2612,8 +2616,12 @@
       <c r="G9" s="74">
         <v>44230</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="74">
+        <v>44230</v>
+      </c>
+      <c r="I9" s="74">
+        <v>44230</v>
+      </c>
       <c r="J9" s="75" t="s">
         <v>118</v>
       </c>
@@ -2640,7 +2648,9 @@
       <c r="G10" s="74">
         <v>44231</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="74">
+        <v>44230</v>
+      </c>
       <c r="I10" s="74"/>
       <c r="J10" s="75"/>
       <c r="K10" s="69"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C305004E-5725-444B-A426-18FEF1E63924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C485693-F353-4A6E-A606-E03A0AF95659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="126">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1384,25 +1384,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2021/2/2時点で、完了しているものの、ログイン画面と新規登録画面でcssが反映されず、その原因を調査中</t>
-    <rPh sb="8" eb="10">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>*2021/2/2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1441,6 +1422,109 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポップアップからの値の引き渡しなどができているかの確認のため、移動処理の実装に先に着手したため開始が遅延</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>イドウショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容としては移動処理と同じため、処理の共通化含めて左記に実装開始</t>
+    <rPh sb="0" eb="3">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イドウショリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ジッソウカイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/2/2時点 完了しているものの、ログイン画面と新規登録画面でcssが反映されず、その原因を調査中</t>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/2/5時点 DBとのデータの整合性を取る処理がうまくいっていないため要確認</t>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ヨウカクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2384,7 +2468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2494,7 +2578,9 @@
       <c r="G5" s="74">
         <v>44244</v>
       </c>
-      <c r="H5" s="74"/>
+      <c r="H5" s="74">
+        <v>44232</v>
+      </c>
       <c r="I5" s="74"/>
       <c r="J5" s="75" t="s">
         <v>113</v>
@@ -2527,10 +2613,10 @@
         <v>44229</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
@@ -2563,7 +2649,7 @@
         <v>44230</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
@@ -2604,7 +2690,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="73" t="s">
         <v>8</v>
@@ -2651,7 +2737,9 @@
       <c r="H10" s="74">
         <v>44230</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="74">
+        <v>44231</v>
+      </c>
       <c r="J10" s="75"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
@@ -2785,9 +2873,15 @@
       <c r="G15" s="74">
         <v>44232</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="52"/>
+      <c r="H15" s="74">
+        <v>44232</v>
+      </c>
+      <c r="I15" s="74">
+        <v>44232</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>122</v>
+      </c>
       <c r="K15" s="69"/>
       <c r="L15" s="69"/>
     </row>
@@ -2812,9 +2906,13 @@
       <c r="G16" s="74">
         <v>44235</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="74">
+        <v>44231</v>
+      </c>
       <c r="I16" s="74"/>
-      <c r="J16" s="52"/>
+      <c r="J16" s="52" t="s">
+        <v>125</v>
+      </c>
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
     </row>
@@ -2920,9 +3018,13 @@
       <c r="G20" s="74">
         <v>44236</v>
       </c>
-      <c r="H20" s="74"/>
+      <c r="H20" s="74">
+        <v>44232</v>
+      </c>
       <c r="I20" s="74"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="77" t="s">
+        <v>123</v>
+      </c>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
     </row>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C485693-F353-4A6E-A606-E03A0AF95659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E88B91-C6F9-4FFD-802F-902A7A6C8004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="128">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1460,34 +1460,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>処理内容としては移動処理と同じため、処理の共通化含めて左記に実装開始</t>
-    <rPh sb="0" eb="3">
-      <t>ショリナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>イドウショリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>キョウツウカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>ジッソウカイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2021/2/2時点 完了しているものの、ログイン画面と新規登録画面でcssが反映されず、その原因を調査中</t>
     <rPh sb="8" eb="10">
       <t>ジテン</t>
@@ -1525,6 +1497,81 @@
     </rPh>
     <rPh sb="39" eb="42">
       <t>ヨウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Javaの中では比較と処理ができていると思われますが、ビュー側への確認のための返し方がうまく動作していないので調査中です</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容としては移動処理と同じため、処理の共通化含めて先に実装開始</t>
+    <rPh sb="0" eb="3">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イドウショリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ジッソウカイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>競合時の処理結果を詳しく未確認</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2468,22 +2515,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" style="57" customWidth="1"/>
     <col min="2" max="2" width="24" style="57" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" style="60" customWidth="1"/>
     <col min="6" max="9" width="9.5" style="63" customWidth="1"/>
-    <col min="10" max="10" width="110.75" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="57"/>
+    <col min="10" max="10" width="110.69921875" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>22</v>
       </c>
@@ -2493,7 +2540,7 @@
       <c r="E1" s="62"/>
       <c r="J1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="61"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -2509,7 +2556,7 @@
       <c r="I2" s="95"/>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
@@ -2541,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65" t="s">
@@ -2557,7 +2604,7 @@
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="71">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
@@ -2588,7 +2635,7 @@
       <c r="K5" s="69"/>
       <c r="L5" s="69"/>
     </row>
-    <row r="6" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2616,12 +2663,12 @@
         <v>119</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2654,7 +2701,7 @@
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
     </row>
-    <row r="8" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2681,7 +2728,7 @@
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
     </row>
-    <row r="9" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2714,7 +2761,7 @@
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
     </row>
-    <row r="10" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" s="71">
         <v>3</v>
       </c>
@@ -2744,7 +2791,7 @@
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
     </row>
-    <row r="11" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="71">
         <f>ROW()-4</f>
         <v>7</v>
@@ -2771,7 +2818,7 @@
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
     </row>
-    <row r="12" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" s="71">
         <f t="shared" ref="A12:A32" si="1">ROW()-4</f>
         <v>8</v>
@@ -2792,13 +2839,17 @@
       <c r="G12" s="74">
         <v>44235</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="74">
+        <v>44235</v>
+      </c>
       <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
+      <c r="J12" s="75" t="s">
+        <v>125</v>
+      </c>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
     </row>
-    <row r="13" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
       <c r="A13" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2825,7 +2876,7 @@
       <c r="K13" s="69"/>
       <c r="L13" s="69"/>
     </row>
-    <row r="14" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
       <c r="A14" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2852,7 +2903,7 @@
       <c r="K14" s="69"/>
       <c r="L14" s="69"/>
     </row>
-    <row r="15" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2885,7 +2936,7 @@
       <c r="K15" s="69"/>
       <c r="L15" s="69"/>
     </row>
-    <row r="16" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2909,14 +2960,16 @@
       <c r="H16" s="74">
         <v>44231</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="74">
+        <v>44235</v>
+      </c>
       <c r="J16" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
     </row>
-    <row r="17" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2937,13 +2990,17 @@
       <c r="G17" s="74">
         <v>44235</v>
       </c>
-      <c r="H17" s="74"/>
+      <c r="H17" s="74">
+        <v>44235</v>
+      </c>
       <c r="I17" s="74"/>
-      <c r="J17" s="77"/>
+      <c r="J17" s="77" t="s">
+        <v>127</v>
+      </c>
       <c r="K17" s="69"/>
       <c r="L17" s="69"/>
     </row>
-    <row r="18" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2964,13 +3021,17 @@
       <c r="G18" s="74">
         <v>44235</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="H18" s="74">
+        <v>44235</v>
+      </c>
+      <c r="I18" s="74">
+        <v>44235</v>
+      </c>
       <c r="J18" s="77"/>
       <c r="K18" s="69"/>
       <c r="L18" s="69"/>
     </row>
-    <row r="19" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2991,13 +3052,17 @@
       <c r="G19" s="74">
         <v>44235</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="H19" s="74">
+        <v>44235</v>
+      </c>
+      <c r="I19" s="74">
+        <v>44235</v>
+      </c>
       <c r="J19" s="77"/>
       <c r="K19" s="69"/>
       <c r="L19" s="69"/>
     </row>
-    <row r="20" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3021,14 +3086,16 @@
       <c r="H20" s="74">
         <v>44232</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="74">
+        <v>44235</v>
+      </c>
       <c r="J20" s="77" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
     </row>
-    <row r="21" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
       <c r="A21" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3049,13 +3116,17 @@
       <c r="G21" s="74">
         <v>44236</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="74">
+        <v>44235</v>
+      </c>
       <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
+      <c r="J21" s="77" t="s">
+        <v>127</v>
+      </c>
       <c r="K21" s="69"/>
       <c r="L21" s="69"/>
     </row>
-    <row r="22" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3076,13 +3147,17 @@
       <c r="G22" s="74">
         <v>44236</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="74">
+        <v>44235</v>
+      </c>
+      <c r="I22" s="74">
+        <v>44235</v>
+      </c>
       <c r="J22" s="52"/>
       <c r="K22" s="69"/>
       <c r="L22" s="69"/>
     </row>
-    <row r="23" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3103,13 +3178,17 @@
       <c r="G23" s="74">
         <v>44236</v>
       </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="H23" s="74">
+        <v>44235</v>
+      </c>
+      <c r="I23" s="74">
+        <v>44235</v>
+      </c>
       <c r="J23" s="52"/>
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
     </row>
-    <row r="24" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3136,7 +3215,7 @@
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
     </row>
-    <row r="25" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="71">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3163,7 +3242,7 @@
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
     </row>
-    <row r="26" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="71">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3190,7 +3269,7 @@
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
     </row>
-    <row r="27" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" s="71">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3217,7 +3296,7 @@
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
     </row>
-    <row r="28" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" s="71">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3248,7 +3327,7 @@
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
     </row>
-    <row r="29" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
       <c r="A29" s="71">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3275,7 +3354,7 @@
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
     </row>
-    <row r="30" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="71">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3302,7 +3381,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
     </row>
-    <row r="31" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3329,7 +3408,7 @@
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
     </row>
-    <row r="32" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" s="71">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3356,7 +3435,7 @@
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
     </row>
-    <row r="33" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65" t="s">
@@ -3372,7 +3451,7 @@
       <c r="K33" s="80"/>
       <c r="L33" s="80"/>
     </row>
-    <row r="34" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A34" s="71">
         <f>ROW()-5</f>
         <v>29</v>
@@ -3399,7 +3478,7 @@
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
     </row>
-    <row r="35" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" s="71">
         <f>ROW()-5</f>
         <v>30</v>
@@ -3426,7 +3505,7 @@
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
     </row>
-    <row r="36" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A36" s="71">
         <f t="shared" ref="A36:A40" si="2">ROW()-5</f>
         <v>31</v>
@@ -3453,7 +3532,7 @@
       <c r="K36" s="69"/>
       <c r="L36" s="69"/>
     </row>
-    <row r="37" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A37" s="71">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3480,7 +3559,7 @@
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
     </row>
-    <row r="38" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" s="71">
         <v>30</v>
       </c>
@@ -3506,7 +3585,7 @@
       <c r="K38" s="69"/>
       <c r="L38" s="69"/>
     </row>
-    <row r="39" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" s="71">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3533,7 +3612,7 @@
       <c r="K39" s="69"/>
       <c r="L39" s="69"/>
     </row>
-    <row r="40" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" s="71">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3560,7 +3639,7 @@
       <c r="K40" s="69"/>
       <c r="L40" s="69"/>
     </row>
-    <row r="41" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65" t="s">
@@ -3578,7 +3657,7 @@
       <c r="K41" s="80"/>
       <c r="L41" s="80"/>
     </row>
-    <row r="42" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A42" s="87">
         <v>26</v>
       </c>
@@ -3606,7 +3685,7 @@
       <c r="K42" s="87"/>
       <c r="L42" s="87"/>
     </row>
-    <row r="43" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A43" s="87">
         <v>28</v>
       </c>
@@ -3632,7 +3711,7 @@
       <c r="K43" s="87"/>
       <c r="L43" s="87"/>
     </row>
-    <row r="44" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A44" s="87">
         <v>30</v>
       </c>
@@ -3658,7 +3737,7 @@
       <c r="K44" s="87"/>
       <c r="L44" s="87"/>
     </row>
-    <row r="45" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A45" s="87">
         <f t="shared" ref="A45:A49" si="3">ROW()-5</f>
         <v>40</v>
@@ -3685,7 +3764,7 @@
       <c r="K45" s="87"/>
       <c r="L45" s="87"/>
     </row>
-    <row r="46" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A46" s="87">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3712,7 +3791,7 @@
       <c r="K46" s="87"/>
       <c r="L46" s="87"/>
     </row>
-    <row r="47" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A47" s="87">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3739,7 +3818,7 @@
       <c r="K47" s="87"/>
       <c r="L47" s="87"/>
     </row>
-    <row r="48" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A48" s="87">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3766,7 +3845,7 @@
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
     </row>
-    <row r="49" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="A49" s="87">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3793,7 +3872,7 @@
       <c r="K49" s="87"/>
       <c r="L49" s="87"/>
     </row>
-    <row r="50" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="D50" s="85"/>
       <c r="E50" s="85"/>
       <c r="F50" s="86"/>
@@ -3801,7 +3880,7 @@
       <c r="H50" s="86"/>
       <c r="I50" s="86"/>
     </row>
-    <row r="51" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
       <c r="D51" s="85"/>
       <c r="E51" s="85"/>
       <c r="F51" s="86"/>
@@ -3832,24 +3911,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.375" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3938,7 @@
       </c>
       <c r="H2" s="99"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3888,7 +3967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -3901,7 +3980,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -3926,7 +4005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -3951,7 +4030,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -3976,7 +4055,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -4001,7 +4080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -4026,7 +4105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -4051,7 +4130,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -4064,7 +4143,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="35">
         <v>7</v>
       </c>
@@ -4091,7 +4170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="35">
         <v>8</v>
       </c>
@@ -4118,7 +4197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="35">
         <v>9</v>
       </c>
@@ -4145,7 +4224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="35">
         <v>10</v>
       </c>
@@ -4170,7 +4249,7 @@
       </c>
       <c r="I15" s="41"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35">
         <v>11</v>
       </c>
@@ -4195,7 +4274,7 @@
       </c>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -4220,7 +4299,7 @@
       </c>
       <c r="I17" s="41"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="35">
         <v>13</v>
       </c>
@@ -4247,7 +4326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="35">
         <v>14</v>
       </c>
@@ -4274,7 +4353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="35">
         <v>15</v>
       </c>
@@ -4299,7 +4378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="35">
         <v>16</v>
       </c>
@@ -4324,7 +4403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="46">
         <v>17</v>
       </c>
@@ -4349,7 +4428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="46">
         <v>18</v>
       </c>
@@ -4374,7 +4453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -4401,7 +4480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35">
         <v>20</v>
       </c>
@@ -4424,7 +4503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27">
         <v>21</v>
       </c>
@@ -4445,7 +4524,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27">
         <v>22</v>
       </c>
@@ -4470,7 +4549,7 @@
       </c>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>24</v>
@@ -4483,7 +4562,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <v>23</v>
       </c>
@@ -4506,7 +4585,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <v>24</v>
       </c>
@@ -4521,7 +4600,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
         <v>62</v>
@@ -4544,7 +4623,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
         <v>13</v>
@@ -4567,7 +4646,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
         <v>63</v>
@@ -4590,7 +4669,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="51"/>
       <c r="B34" s="18" t="s">
         <v>64</v>
@@ -4613,7 +4692,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="51"/>
       <c r="B35" s="18" t="s">
         <v>65</v>
@@ -4636,7 +4715,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>66</v>
@@ -4659,7 +4738,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="51"/>
       <c r="B37" s="20" t="s">
         <v>67</v>
@@ -4682,7 +4761,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20">
         <v>25</v>
       </c>
@@ -4699,7 +4778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="50"/>
       <c r="B39" s="18" t="s">
         <v>62</v>
@@ -4720,7 +4799,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="51"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
@@ -4741,7 +4820,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="51"/>
       <c r="B41" s="18" t="s">
         <v>63</v>
@@ -4762,7 +4841,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="51"/>
       <c r="B42" s="18" t="s">
         <v>64</v>
@@ -4783,7 +4862,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="51"/>
       <c r="B43" s="18" t="s">
         <v>65</v>
@@ -4804,7 +4883,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
         <v>66</v>
@@ -4825,7 +4904,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="51"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -4846,7 +4925,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4855,7 +4934,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4864,7 +4943,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4893,23 +4972,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.375" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4998,7 @@
       </c>
       <c r="H2" s="99"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4948,7 +5027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -4961,7 +5040,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -4986,7 +5065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -5011,7 +5090,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -5036,7 +5115,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -5061,7 +5140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -5086,7 +5165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -5111,7 +5190,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -5124,7 +5203,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -5149,7 +5228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -5176,7 +5255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -5201,7 +5280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -5226,7 +5305,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -5251,7 +5330,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -5276,7 +5355,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -5301,7 +5380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -5324,7 +5403,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="101"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -5349,7 +5428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -5374,7 +5453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -5399,7 +5478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -5424,7 +5503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -5449,7 +5528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -5470,7 +5549,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -5483,7 +5562,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -5504,7 +5583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -5523,7 +5602,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -5534,7 +5613,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -5545,7 +5624,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -5556,7 +5635,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -5567,7 +5646,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -5578,7 +5657,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -5589,7 +5668,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -5600,7 +5679,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -5611,7 +5690,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -5622,7 +5701,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -5633,7 +5712,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -5644,7 +5723,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -5655,7 +5734,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -5666,7 +5745,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -5677,7 +5756,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5686,7 +5765,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -5695,7 +5774,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5704,7 +5783,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E88B91-C6F9-4FFD-802F-902A7A6C8004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0843DA7-32BA-4278-856F-430299E6940A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="131">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1460,25 +1460,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2021/2/2時点 完了しているものの、ログイン画面と新規登録画面でcssが反映されず、その原因を調査中</t>
-    <rPh sb="8" eb="10">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2021/2/5時点 DBとのデータの整合性を取る処理がうまくいっていないため要確認</t>
     <rPh sb="8" eb="10">
       <t>ジテン</t>
@@ -1501,31 +1482,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Javaの中では比較と処理ができていると思われますが、ビュー側への確認のための返し方がうまく動作していないので調査中です</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理内容としては移動処理と同じため、処理の共通化含めて先に実装開始</t>
     <rPh sb="0" eb="3">
       <t>ショリナイヨウ</t>
@@ -1554,24 +1510,147 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>競合時の処理結果を詳しく未確認</t>
-    <rPh sb="0" eb="2">
-      <t>キョウゴウジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
+    <t>MultipartFileをビュー側へ返してそのままControllerクラスに戻す手段がわかりませんでしたので、JavaScriptで比較処理を記述しました。</t>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ヒカクショリ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/2/2時点 完了しているものの、ログイン画面と新規登録画面でcssが反映されず、その原因を調査中
+→2021/2/9 cssとJavaScriptファイルをセキュリティ対象外に指定して解決</t>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScriptのアラートとして出力確認は行ったが、移動先選択画面へ戻すべきと考えましたので、修正します。</t>
+    <rPh sb="17" eb="21">
+      <t>シュツリョクカクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="34">
+      <t>イドウサキセンタクガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScriptのアラートとして出力確認は行ったが、フォルダ名入力画面へ戻すべきと考えましたので、修正します。</t>
+    <rPh sb="17" eb="21">
+      <t>シュツリョクカクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScriptのアラートとして出力確認は行ったが、名称変更画面へ戻すべきと考えましたので、修正します。</t>
+    <rPh sb="17" eb="21">
+      <t>シュツリョクカクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28同様 WebSecurityConfigクラスとUserDetailsクラスの修正で可能と考えています</t>
+    <rPh sb="2" eb="4">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1924,7 +2003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2196,6 +2275,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2514,23 +2596,23 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="57" customWidth="1"/>
     <col min="2" max="2" width="24" style="57" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="4.8984375" style="60" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="60" customWidth="1"/>
     <col min="6" max="9" width="9.5" style="63" customWidth="1"/>
-    <col min="10" max="10" width="110.69921875" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="57"/>
+    <col min="10" max="10" width="110.75" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +2622,7 @@
       <c r="E1" s="62"/>
       <c r="J1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="61"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -2556,7 +2638,7 @@
       <c r="I2" s="95"/>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
@@ -2588,7 +2670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65" t="s">
@@ -2604,7 +2686,7 @@
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="71">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
@@ -2635,7 +2717,7 @@
       <c r="K5" s="69"/>
       <c r="L5" s="69"/>
     </row>
-    <row r="6" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2662,13 +2744,13 @@
       <c r="I6" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="75" t="s">
-        <v>123</v>
+      <c r="J6" s="102" t="s">
+        <v>126</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2701,7 +2783,7 @@
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
     </row>
-    <row r="8" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2728,7 +2810,7 @@
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
     </row>
-    <row r="9" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2761,7 +2843,7 @@
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
     </row>
-    <row r="10" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A10" s="71">
         <v>3</v>
       </c>
@@ -2791,7 +2873,7 @@
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
     </row>
-    <row r="11" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A11" s="71">
         <f>ROW()-4</f>
         <v>7</v>
@@ -2818,7 +2900,7 @@
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
     </row>
-    <row r="12" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="71">
         <f t="shared" ref="A12:A32" si="1">ROW()-4</f>
         <v>8</v>
@@ -2842,14 +2924,16 @@
       <c r="H12" s="74">
         <v>44235</v>
       </c>
-      <c r="I12" s="74"/>
+      <c r="I12" s="74">
+        <v>44236</v>
+      </c>
       <c r="J12" s="75" t="s">
         <v>125</v>
       </c>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
     </row>
-    <row r="13" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2876,7 +2960,7 @@
       <c r="K13" s="69"/>
       <c r="L13" s="69"/>
     </row>
-    <row r="14" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2903,7 +2987,7 @@
       <c r="K14" s="69"/>
       <c r="L14" s="69"/>
     </row>
-    <row r="15" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A15" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2936,7 +3020,7 @@
       <c r="K15" s="69"/>
       <c r="L15" s="69"/>
     </row>
-    <row r="16" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A16" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2964,12 +3048,12 @@
         <v>44235</v>
       </c>
       <c r="J16" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
     </row>
-    <row r="17" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A17" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3000,7 +3084,7 @@
       <c r="K17" s="69"/>
       <c r="L17" s="69"/>
     </row>
-    <row r="18" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3031,7 +3115,7 @@
       <c r="K18" s="69"/>
       <c r="L18" s="69"/>
     </row>
-    <row r="19" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3062,7 +3146,7 @@
       <c r="K19" s="69"/>
       <c r="L19" s="69"/>
     </row>
-    <row r="20" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A20" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3090,12 +3174,12 @@
         <v>44235</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
     </row>
-    <row r="21" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3121,12 +3205,12 @@
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="69"/>
       <c r="L21" s="69"/>
     </row>
-    <row r="22" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3157,7 +3241,7 @@
       <c r="K22" s="69"/>
       <c r="L22" s="69"/>
     </row>
-    <row r="23" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A23" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3188,7 +3272,7 @@
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
     </row>
-    <row r="24" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A24" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3209,13 +3293,17 @@
       <c r="G24" s="74">
         <v>44236</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="74">
+        <v>44236</v>
+      </c>
       <c r="I24" s="74"/>
-      <c r="J24" s="52"/>
+      <c r="J24" s="77" t="s">
+        <v>128</v>
+      </c>
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
     </row>
-    <row r="25" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A25" s="71">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3236,13 +3324,17 @@
       <c r="G25" s="82">
         <v>44242</v>
       </c>
-      <c r="H25" s="74"/>
+      <c r="H25" s="74">
+        <v>44236</v>
+      </c>
       <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
+      <c r="J25" s="75" t="s">
+        <v>130</v>
+      </c>
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
     </row>
-    <row r="26" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A26" s="71">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3269,7 +3361,7 @@
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
     </row>
-    <row r="27" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A27" s="71">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3296,7 +3388,7 @@
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
     </row>
-    <row r="28" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A28" s="71">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3327,7 +3419,7 @@
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
     </row>
-    <row r="29" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A29" s="71">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3354,7 +3446,7 @@
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
     </row>
-    <row r="30" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A30" s="71">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3381,7 +3473,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
     </row>
-    <row r="31" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3408,7 +3500,7 @@
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
     </row>
-    <row r="32" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A32" s="71">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3429,13 +3521,15 @@
       <c r="G32" s="82">
         <v>44242</v>
       </c>
-      <c r="H32" s="82"/>
+      <c r="H32" s="82">
+        <v>44236</v>
+      </c>
       <c r="I32" s="82"/>
       <c r="J32" s="69"/>
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
     </row>
-    <row r="33" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65" t="s">
@@ -3451,7 +3545,7 @@
       <c r="K33" s="80"/>
       <c r="L33" s="80"/>
     </row>
-    <row r="34" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A34" s="71">
         <f>ROW()-5</f>
         <v>29</v>
@@ -3478,7 +3572,7 @@
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
     </row>
-    <row r="35" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A35" s="71">
         <f>ROW()-5</f>
         <v>30</v>
@@ -3505,7 +3599,7 @@
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
     </row>
-    <row r="36" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A36" s="71">
         <f t="shared" ref="A36:A40" si="2">ROW()-5</f>
         <v>31</v>
@@ -3532,7 +3626,7 @@
       <c r="K36" s="69"/>
       <c r="L36" s="69"/>
     </row>
-    <row r="37" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A37" s="71">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3559,7 +3653,7 @@
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
     </row>
-    <row r="38" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A38" s="71">
         <v>30</v>
       </c>
@@ -3585,7 +3679,7 @@
       <c r="K38" s="69"/>
       <c r="L38" s="69"/>
     </row>
-    <row r="39" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A39" s="71">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3612,7 +3706,7 @@
       <c r="K39" s="69"/>
       <c r="L39" s="69"/>
     </row>
-    <row r="40" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A40" s="71">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3639,7 +3733,7 @@
       <c r="K40" s="69"/>
       <c r="L40" s="69"/>
     </row>
-    <row r="41" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65" t="s">
@@ -3657,7 +3751,7 @@
       <c r="K41" s="80"/>
       <c r="L41" s="80"/>
     </row>
-    <row r="42" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A42" s="87">
         <v>26</v>
       </c>
@@ -3685,7 +3779,7 @@
       <c r="K42" s="87"/>
       <c r="L42" s="87"/>
     </row>
-    <row r="43" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A43" s="87">
         <v>28</v>
       </c>
@@ -3711,7 +3805,7 @@
       <c r="K43" s="87"/>
       <c r="L43" s="87"/>
     </row>
-    <row r="44" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A44" s="87">
         <v>30</v>
       </c>
@@ -3737,7 +3831,7 @@
       <c r="K44" s="87"/>
       <c r="L44" s="87"/>
     </row>
-    <row r="45" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A45" s="87">
         <f t="shared" ref="A45:A49" si="3">ROW()-5</f>
         <v>40</v>
@@ -3764,7 +3858,7 @@
       <c r="K45" s="87"/>
       <c r="L45" s="87"/>
     </row>
-    <row r="46" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A46" s="87">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3791,7 +3885,7 @@
       <c r="K46" s="87"/>
       <c r="L46" s="87"/>
     </row>
-    <row r="47" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A47" s="87">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3818,7 +3912,7 @@
       <c r="K47" s="87"/>
       <c r="L47" s="87"/>
     </row>
-    <row r="48" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A48" s="87">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3845,7 +3939,7 @@
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
     </row>
-    <row r="49" spans="1:12" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A49" s="87">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3872,7 +3966,7 @@
       <c r="K49" s="87"/>
       <c r="L49" s="87"/>
     </row>
-    <row r="50" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="D50" s="85"/>
       <c r="E50" s="85"/>
       <c r="F50" s="86"/>
@@ -3880,7 +3974,7 @@
       <c r="H50" s="86"/>
       <c r="I50" s="86"/>
     </row>
-    <row r="51" spans="1:12" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="D51" s="85"/>
       <c r="E51" s="85"/>
       <c r="F51" s="86"/>
@@ -3911,24 +4005,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.3984375" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +4032,7 @@
       </c>
       <c r="H2" s="99"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3967,7 +4061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -3980,7 +4074,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -4005,7 +4099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -4030,7 +4124,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -4055,7 +4149,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -4080,7 +4174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -4105,7 +4199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -4130,7 +4224,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -4143,7 +4237,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>7</v>
       </c>
@@ -4170,7 +4264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>8</v>
       </c>
@@ -4197,7 +4291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>9</v>
       </c>
@@ -4224,7 +4318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>10</v>
       </c>
@@ -4249,7 +4343,7 @@
       </c>
       <c r="I15" s="41"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>11</v>
       </c>
@@ -4274,7 +4368,7 @@
       </c>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -4299,7 +4393,7 @@
       </c>
       <c r="I17" s="41"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>13</v>
       </c>
@@ -4326,7 +4420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>14</v>
       </c>
@@ -4353,7 +4447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>15</v>
       </c>
@@ -4378,7 +4472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>16</v>
       </c>
@@ -4403,7 +4497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="46">
         <v>17</v>
       </c>
@@ -4428,7 +4522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="46">
         <v>18</v>
       </c>
@@ -4453,7 +4547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -4480,7 +4574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>20</v>
       </c>
@@ -4503,7 +4597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27">
         <v>21</v>
       </c>
@@ -4524,7 +4618,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27">
         <v>22</v>
       </c>
@@ -4549,7 +4643,7 @@
       </c>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>24</v>
@@ -4562,7 +4656,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>23</v>
       </c>
@@ -4585,7 +4679,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>24</v>
       </c>
@@ -4600,7 +4694,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
         <v>62</v>
@@ -4623,7 +4717,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
         <v>13</v>
@@ -4646,7 +4740,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
         <v>63</v>
@@ -4669,7 +4763,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
       <c r="B34" s="18" t="s">
         <v>64</v>
@@ -4692,7 +4786,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
       <c r="B35" s="18" t="s">
         <v>65</v>
@@ -4715,7 +4809,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>66</v>
@@ -4738,7 +4832,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
       <c r="B37" s="20" t="s">
         <v>67</v>
@@ -4761,7 +4855,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>25</v>
       </c>
@@ -4778,7 +4872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="50"/>
       <c r="B39" s="18" t="s">
         <v>62</v>
@@ -4799,7 +4893,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
@@ -4820,7 +4914,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
       <c r="B41" s="18" t="s">
         <v>63</v>
@@ -4841,7 +4935,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51"/>
       <c r="B42" s="18" t="s">
         <v>64</v>
@@ -4862,7 +4956,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
       <c r="B43" s="18" t="s">
         <v>65</v>
@@ -4883,7 +4977,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
         <v>66</v>
@@ -4904,7 +4998,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -4925,7 +5019,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4934,7 +5028,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4943,7 +5037,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4972,23 +5066,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.69921875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.3984375" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5092,7 @@
       </c>
       <c r="H2" s="99"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5027,7 +5121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -5040,7 +5134,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -5065,7 +5159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -5090,7 +5184,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -5115,7 +5209,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -5140,7 +5234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -5165,7 +5259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -5190,7 +5284,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -5203,7 +5297,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -5228,7 +5322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -5255,7 +5349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -5280,7 +5374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -5305,7 +5399,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -5330,7 +5424,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -5355,7 +5449,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -5380,7 +5474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -5403,7 +5497,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="101"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -5428,7 +5522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -5453,7 +5547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -5478,7 +5572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <v>16</v>
       </c>
@@ -5503,7 +5597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -5528,7 +5622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -5549,7 +5643,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>24</v>
@@ -5562,7 +5656,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -5583,7 +5677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -5602,7 +5696,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
@@ -5613,7 +5707,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -5624,7 +5718,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -5635,7 +5729,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -5646,7 +5740,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -5657,7 +5751,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -5668,7 +5762,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -5679,7 +5773,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -5690,7 +5784,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -5701,7 +5795,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -5712,7 +5806,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -5723,7 +5817,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -5734,7 +5828,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -5745,7 +5839,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -5756,7 +5850,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5765,7 +5859,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -5774,7 +5868,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5783,7 +5877,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0843DA7-32BA-4278-856F-430299E6940A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2473F-4F48-4CFB-81FC-6EFB29DCDD65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="10305" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="137">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1561,84 +1561,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JavaScriptのアラートとして出力確認は行ったが、移動先選択画面へ戻すべきと考えましたので、修正します。</t>
-    <rPh sb="17" eb="21">
-      <t>シュツリョクカクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="34">
-      <t>イドウサキセンタクガメン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JavaScriptのアラートとして出力確認は行ったが、フォルダ名入力画面へ戻すべきと考えましたので、修正します。</t>
-    <rPh sb="17" eb="21">
-      <t>シュツリョクカクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JavaScriptのアラートとして出力確認は行ったが、名称変更画面へ戻すべきと考えましたので、修正します。</t>
-    <rPh sb="17" eb="21">
-      <t>シュツリョクカクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>28同様 WebSecurityConfigクラスとUserDetailsクラスの修正で可能と考えています</t>
     <rPh sb="2" eb="4">
       <t>ドウヨウ</t>
@@ -1651,6 +1573,165 @@
     </rPh>
     <rPh sb="47" eb="48">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更後の名称のバリデーション</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成時のフォルダ名のバリデーション</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*2021/2/9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScriptのアラートとして出力確認は行ったが、移動先選択画面へ戻すべきと考えましたので、修正します。
+No.29に別途記載</t>
+    <rPh sb="17" eb="21">
+      <t>シュツリョクカクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="34">
+      <t>イドウサキセンタクガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>ベットキサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScriptのアラートとして出力確認は行ったが、名称変更画面へ戻すべきと考えましたので、修正します。
+No.30に別途記載</t>
+    <rPh sb="17" eb="21">
+      <t>シュツリョクカクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScriptのアラートとして出力確認は行ったが、フォルダ名入力画面へ戻すべきと考えましたので、修正します。
+No.31に別途記載</t>
+    <rPh sb="17" eb="21">
+      <t>シュツリョクカクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時に、移動先選択画面に戻す</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="13">
+      <t>イドウサキセンタクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hasAuthority()で設定。hasRoleでの設定で修正できれば修正したく思います</t>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーションを@Emailではなく、@Patternと@Sizeで指定(@Emailでは全角文字での登録やドメイン部分で不都合があったため)</t>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>フツゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2003,7 +2084,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2252,6 +2333,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,7 +2360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2593,11 +2677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918F232-5909-4A2A-A45A-F65522D71E4A}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2606,7 +2690,7 @@
     <col min="2" max="2" width="24" style="57" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="60" hidden="1" customWidth="1"/>
     <col min="6" max="9" width="9.5" style="63" customWidth="1"/>
     <col min="10" max="10" width="110.75" style="57" customWidth="1"/>
     <col min="11" max="16384" width="8.75" style="57"/>
@@ -2628,14 +2712,14 @@
       <c r="C2" s="61"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="94" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="95"/>
+      <c r="I2" s="96"/>
       <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.4">
@@ -2744,7 +2828,7 @@
       <c r="I6" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="94" t="s">
         <v>126</v>
       </c>
       <c r="K6" s="69"/>
@@ -2902,7 +2986,7 @@
     </row>
     <row r="12" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="71">
-        <f t="shared" ref="A12:A32" si="1">ROW()-4</f>
+        <f t="shared" ref="A12:A35" si="1">ROW()-4</f>
         <v>8</v>
       </c>
       <c r="B12" s="72" t="s">
@@ -3053,7 +3137,7 @@
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
     </row>
-    <row r="17" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A17" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3077,9 +3161,11 @@
       <c r="H17" s="74">
         <v>44235</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="77" t="s">
-        <v>127</v>
+      <c r="I17" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="103" t="s">
+        <v>131</v>
       </c>
       <c r="K17" s="69"/>
       <c r="L17" s="69"/>
@@ -3203,9 +3289,11 @@
       <c r="H21" s="74">
         <v>44235</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="77" t="s">
-        <v>129</v>
+      <c r="I21" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="103" t="s">
+        <v>132</v>
       </c>
       <c r="K21" s="69"/>
       <c r="L21" s="69"/>
@@ -3272,7 +3360,7 @@
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
     </row>
-    <row r="24" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3296,9 +3384,11 @@
       <c r="H24" s="74">
         <v>44236</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="77" t="s">
-        <v>128</v>
+      <c r="I24" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="103" t="s">
+        <v>133</v>
       </c>
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
@@ -3327,9 +3417,11 @@
       <c r="H25" s="74">
         <v>44236</v>
       </c>
-      <c r="I25" s="74"/>
+      <c r="I25" s="82">
+        <v>44237</v>
+      </c>
       <c r="J25" s="75" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
@@ -3355,8 +3447,12 @@
       <c r="G26" s="82">
         <v>44237</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
+      <c r="H26" s="82">
+        <v>44237</v>
+      </c>
+      <c r="I26" s="82">
+        <v>44237</v>
+      </c>
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
@@ -3382,8 +3478,12 @@
       <c r="G27" s="82">
         <v>44237</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
+      <c r="H27" s="82">
+        <v>44237</v>
+      </c>
+      <c r="I27" s="82">
+        <v>44237</v>
+      </c>
       <c r="J27" s="69"/>
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
@@ -3440,9 +3540,15 @@
       <c r="G29" s="82">
         <v>44237</v>
       </c>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="69"/>
+      <c r="H29" s="82">
+        <v>44237</v>
+      </c>
+      <c r="I29" s="82">
+        <v>44237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>136</v>
+      </c>
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
     </row>
@@ -3524,49 +3630,66 @@
       <c r="H32" s="82">
         <v>44236</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="69"/>
+      <c r="I32" s="82">
+        <v>44239</v>
+      </c>
+      <c r="J32" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
     </row>
-    <row r="33" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+    <row r="33" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="71">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="83"/>
+      <c r="F33" s="82">
+        <v>44239</v>
+      </c>
+      <c r="G33" s="82">
+        <v>44243</v>
+      </c>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A34" s="71">
-        <f>ROW()-5</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>128</v>
       </c>
       <c r="D34" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="83"/>
       <c r="F34" s="82">
-        <v>44249</v>
+        <v>44239</v>
       </c>
       <c r="G34" s="82">
-        <v>44249</v>
-      </c>
-      <c r="H34" s="82"/>
+        <v>44243</v>
+      </c>
+      <c r="H34" s="82">
+        <v>44239</v>
+      </c>
       <c r="I34" s="82"/>
       <c r="J34" s="69"/>
       <c r="K34" s="69"/>
@@ -3574,65 +3697,56 @@
     </row>
     <row r="35" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A35" s="71">
-        <f>ROW()-5</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>129</v>
       </c>
       <c r="D35" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="83"/>
       <c r="F35" s="82">
-        <v>44249</v>
+        <v>44239</v>
       </c>
       <c r="G35" s="82">
-        <v>44249</v>
-      </c>
-      <c r="H35" s="82"/>
+        <v>44243</v>
+      </c>
+      <c r="H35" s="82">
+        <v>44239</v>
+      </c>
       <c r="I35" s="82"/>
       <c r="J35" s="69"/>
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
     </row>
-    <row r="36" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="71">
-        <f t="shared" ref="A36:A40" si="2">ROW()-5</f>
-        <v>31</v>
-      </c>
-      <c r="B36" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="82">
-        <v>44251</v>
-      </c>
-      <c r="G36" s="82">
-        <v>44251</v>
-      </c>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+    <row r="36" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A37" s="71">
-        <f t="shared" si="2"/>
+        <f>ROW()-5</f>
         <v>32</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C37" s="72" t="s">
         <v>107</v>
@@ -3642,10 +3756,10 @@
       </c>
       <c r="E37" s="83"/>
       <c r="F37" s="82">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="G37" s="82">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="H37" s="82"/>
       <c r="I37" s="82"/>
@@ -3655,10 +3769,11 @@
     </row>
     <row r="38" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A38" s="71">
-        <v>30</v>
+        <f>ROW()-5</f>
+        <v>33</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C38" s="72" t="s">
         <v>107</v>
@@ -3668,10 +3783,10 @@
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="82">
-        <v>44252</v>
+        <v>44249</v>
       </c>
       <c r="G38" s="82">
-        <v>44252</v>
+        <v>44249</v>
       </c>
       <c r="H38" s="82"/>
       <c r="I38" s="82"/>
@@ -3681,11 +3796,11 @@
     </row>
     <row r="39" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A39" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A39:A43" si="2">ROW()-5</f>
         <v>34</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C39" s="72" t="s">
         <v>107</v>
@@ -3695,10 +3810,10 @@
       </c>
       <c r="E39" s="83"/>
       <c r="F39" s="82">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="G39" s="82">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="H39" s="82"/>
       <c r="I39" s="82"/>
@@ -3711,8 +3826,8 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B40" s="78" t="s">
-        <v>11</v>
+      <c r="B40" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="C40" s="72" t="s">
         <v>107</v>
@@ -3722,10 +3837,10 @@
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="82">
-        <v>44253</v>
+        <v>44251</v>
       </c>
       <c r="G40" s="82">
-        <v>44253</v>
+        <v>44251</v>
       </c>
       <c r="H40" s="82"/>
       <c r="I40" s="82"/>
@@ -3733,111 +3848,110 @@
       <c r="K40" s="69"/>
       <c r="L40" s="69"/>
     </row>
-    <row r="41" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65" t="s">
+    <row r="41" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="71">
+        <v>30</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="83"/>
+      <c r="F41" s="82">
+        <v>44252</v>
+      </c>
+      <c r="G41" s="82">
+        <v>44252</v>
+      </c>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+    </row>
+    <row r="42" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="71">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="83"/>
+      <c r="F42" s="82">
+        <v>44252</v>
+      </c>
+      <c r="G42" s="82">
+        <v>44252</v>
+      </c>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+    </row>
+    <row r="43" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="71">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="83"/>
+      <c r="F43" s="82">
+        <v>44253</v>
+      </c>
+      <c r="G43" s="82">
+        <v>44253</v>
+      </c>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+    </row>
+    <row r="44" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="93" t="s">
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-    </row>
-    <row r="42" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="87">
-        <v>26</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G42" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-    </row>
-    <row r="43" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="87">
-        <v>28</v>
-      </c>
-      <c r="B43" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G43" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-    </row>
-    <row r="44" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A44" s="87">
-        <v>30</v>
-      </c>
-      <c r="B44" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G44" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
     </row>
     <row r="45" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A45" s="87">
-        <f t="shared" ref="A45:A49" si="3">ROW()-5</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>108</v>
@@ -3854,17 +3968,18 @@
       </c>
       <c r="H45" s="90"/>
       <c r="I45" s="90"/>
-      <c r="J45" s="97"/>
+      <c r="J45" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="K45" s="87"/>
       <c r="L45" s="87"/>
     </row>
     <row r="46" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A46" s="87">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C46" s="88" t="s">
         <v>108</v>
@@ -3881,17 +3996,16 @@
       </c>
       <c r="H46" s="90"/>
       <c r="I46" s="90"/>
-      <c r="J46" s="97"/>
+      <c r="J46" s="98"/>
       <c r="K46" s="87"/>
       <c r="L46" s="87"/>
     </row>
     <row r="47" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A47" s="87">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B47" s="88" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C47" s="88" t="s">
         <v>108</v>
@@ -3908,17 +4022,17 @@
       </c>
       <c r="H47" s="90"/>
       <c r="I47" s="90"/>
-      <c r="J47" s="97"/>
+      <c r="J47" s="98"/>
       <c r="K47" s="87"/>
       <c r="L47" s="87"/>
     </row>
     <row r="48" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A48" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A48:A52" si="3">ROW()-5</f>
         <v>43</v>
       </c>
       <c r="B48" s="88" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C48" s="88" t="s">
         <v>108</v>
@@ -3935,7 +4049,7 @@
       </c>
       <c r="H48" s="90"/>
       <c r="I48" s="90"/>
-      <c r="J48" s="97"/>
+      <c r="J48" s="98"/>
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
     </row>
@@ -3944,8 +4058,8 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B49" s="92" t="s">
-        <v>11</v>
+      <c r="B49" s="88" t="s">
+        <v>88</v>
       </c>
       <c r="C49" s="88" t="s">
         <v>108</v>
@@ -3962,31 +4076,112 @@
       </c>
       <c r="H49" s="90"/>
       <c r="I49" s="90"/>
-      <c r="J49" s="97"/>
+      <c r="J49" s="98"/>
       <c r="K49" s="87"/>
       <c r="L49" s="87"/>
     </row>
-    <row r="50" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-    </row>
-    <row r="51" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
+    <row r="50" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="87">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="89"/>
+      <c r="F50" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G50" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+    </row>
+    <row r="51" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="87">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="89"/>
+      <c r="F51" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G51" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+    </row>
+    <row r="52" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="87">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="89"/>
+      <c r="F52" s="90">
+        <v>44251</v>
+      </c>
+      <c r="G52" s="90">
+        <v>44253</v>
+      </c>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+    </row>
+    <row r="53" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+    </row>
+    <row r="54" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J42:J49"/>
+    <mergeCell ref="J45:J52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4023,14 +4218,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -5083,14 +5278,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -5470,7 +5665,7 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="100" t="s">
+      <c r="I18" s="101" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5495,7 +5690,7 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="101"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2473F-4F48-4CFB-81FC-6EFB29DCDD65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01952E97-15C6-4539-90C7-092BD6B2C151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="10305" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="148">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1306,40 +1306,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全体を通して修正が必要な項目のため、新規追加分は都度記載し、既存部分については修正時に加筆予定</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="18" eb="23">
-      <t>シンキツイカブン</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ツドキサイ</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>キソンブブン</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>シュウセイジ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>カヒツヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>→実施せず</t>
     <rPh sb="1" eb="3">
       <t>ジッシ</t>
@@ -1357,22 +1323,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>使用頻度の高い変数について定数化する</t>
-    <rPh sb="0" eb="4">
-      <t>シヨウヒンド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>テイスウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ワーキングディレクトリの外部定義化</t>
     <rPh sb="12" eb="17">
       <t>ガイブテイギカ</t>
@@ -1380,10 +1330,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Model or ModelAndViewか、など</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>*2021/2/2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1456,28 +1402,6 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>チエン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2021/2/5時点 DBとのデータの整合性を取る処理がうまくいっていないため要確認</t>
-    <rPh sb="8" eb="10">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイゴウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ヨウカクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1732,6 +1656,299 @@
     </rPh>
     <rPh sb="61" eb="64">
       <t>フツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時の表示ページの制御</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*2021/2/19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ファイル・フォルダのバリデーション、例外処理に時間がかかっているため遅延
+バリデーションの作成は完了したが、リクエスト容量の制限をプロパティファイルで記述している場合、それをオーバーした場合はエラーとなる
+→プロパティの指定を「-1」で無制限にもできるが、リクエスト量を制限したいため、例外処理の実装を再検討</t>
+    <rPh sb="18" eb="22">
+      <t>レイガイショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>ムセイゲン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="143" eb="147">
+      <t>レイガイショリ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="151" eb="154">
+      <t>サイケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遅延日数</t>
+    <rPh sb="0" eb="2">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/2/5時点 DBとのデータの整合性を取る処理がうまくいっていないため要確認→完了</t>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ヨウカクニン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル関係の実装に時間がかかっているため</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/2/19時点 エラー表示ページ実装したが、一部異なるエラー画面に遷移するため、原因と対策を調査</t>
+    <rPh sb="9" eb="11">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル関係の実装に時間がかかっているため遅延</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装が遅延しているため。例外処理の考慮範囲をもっと慎重に検討すべきでした</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>レイガイショリ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コウリョハンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロードの容量以外のバリデーション</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロード時のバリデーション</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用頻度の高い変数について定数化、およびプロパティ等への変数埋め込み</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヒンド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>テイスウカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ヘンスウウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装は17日完了済み。18日に例外処理記述完了</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニチカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>レイガイショリキジュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装は16日完了済み。18日に例外処理記述完了</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニチカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2084,7 +2301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2279,9 +2496,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2336,6 +2550,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,8 +2577,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2677,181 +2897,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918F232-5909-4A2A-A45A-F65522D71E4A}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="24" style="57" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="57" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="9.5" style="63" customWidth="1"/>
-    <col min="10" max="10" width="110.75" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="57"/>
+    <col min="1" max="2" width="4.125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="24" style="57" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="57" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="8" style="60" customWidth="1"/>
+    <col min="7" max="10" width="9.5" style="63" customWidth="1"/>
+    <col min="11" max="11" width="110.75" style="57" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="62"/>
-      <c r="J1" s="64"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F1" s="62"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="61"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="62"/>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="96"/>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="H3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="I3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="J3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="K3" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="71">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="D5" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74">
+      <c r="E5" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74">
         <v>44229</v>
       </c>
-      <c r="G5" s="74">
+      <c r="H5" s="74">
         <v>44244</v>
       </c>
-      <c r="H5" s="74">
+      <c r="I5" s="74">
         <v>44232</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="69"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
+        <v>142</v>
+      </c>
       <c r="L5" s="69"/>
-    </row>
-    <row r="6" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="D6" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74">
-        <v>44229</v>
-      </c>
+      <c r="E6" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="73"/>
       <c r="G6" s="74">
         <v>44229</v>
       </c>
       <c r="H6" s="74">
         <v>44229</v>
       </c>
-      <c r="I6" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="69"/>
+      <c r="I6" s="74">
+        <v>44229</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="93" t="s">
+        <v>122</v>
+      </c>
       <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74">
-        <v>44230</v>
-      </c>
+      <c r="D7" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="73"/>
       <c r="G7" s="74">
         <v>44230</v>
       </c>
@@ -2861,57 +3085,59 @@
       <c r="I7" s="74">
         <v>44230</v>
       </c>
-      <c r="J7" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="69"/>
+      <c r="J7" s="74">
+        <v>44230</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>118</v>
+      </c>
       <c r="L7" s="69"/>
-    </row>
-    <row r="8" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74">
-        <v>44245</v>
-      </c>
+      <c r="D8" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="73"/>
       <c r="G8" s="74">
         <v>44245</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="74">
+        <v>44245</v>
+      </c>
       <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="69"/>
-    </row>
-    <row r="9" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74">
-        <v>44230</v>
-      </c>
+      <c r="D9" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="73"/>
       <c r="G9" s="74">
         <v>44230</v>
       </c>
@@ -2921,86 +3147,89 @@
       <c r="I9" s="74">
         <v>44230</v>
       </c>
-      <c r="J9" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="69"/>
+      <c r="J9" s="74">
+        <v>44230</v>
+      </c>
+      <c r="K9" s="75"/>
       <c r="L9" s="69"/>
-    </row>
-    <row r="10" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A10" s="71">
         <v>3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="D10" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74">
+      <c r="E10" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74">
         <v>44230</v>
       </c>
-      <c r="G10" s="74">
+      <c r="H10" s="74">
         <v>44231</v>
       </c>
-      <c r="H10" s="74">
+      <c r="I10" s="74">
         <v>44230</v>
       </c>
-      <c r="I10" s="74">
+      <c r="J10" s="74">
         <v>44231</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="69"/>
-    </row>
-    <row r="11" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A11" s="71">
         <f>ROW()-4</f>
         <v>7</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="D11" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74">
-        <v>44246</v>
-      </c>
+      <c r="E11" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="73"/>
       <c r="G11" s="74">
         <v>44246</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="74">
+        <v>44246</v>
+      </c>
       <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="69"/>
-    </row>
-    <row r="12" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="71">
-        <f t="shared" ref="A12:A35" si="1">ROW()-4</f>
-        <v>8</v>
-      </c>
-      <c r="B12" s="72" t="s">
+        <f t="shared" ref="A12:A38" si="1">ROW()-4</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="D12" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74">
-        <v>44235</v>
+      <c r="E12" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="73">
+        <v>1</v>
       </c>
       <c r="G12" s="74">
         <v>44235</v>
@@ -3009,88 +3238,105 @@
         <v>44235</v>
       </c>
       <c r="I12" s="74">
+        <v>44235</v>
+      </c>
+      <c r="J12" s="74">
         <v>44236</v>
       </c>
-      <c r="J12" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="75" t="s">
+        <v>121</v>
+      </c>
       <c r="L12" s="69"/>
-    </row>
-    <row r="13" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="D13" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74">
+      <c r="E13" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="73">
+        <v>2</v>
+      </c>
+      <c r="G13" s="74">
         <v>44244</v>
       </c>
-      <c r="G13" s="74">
+      <c r="H13" s="74">
         <v>44245</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="69"/>
+      <c r="I13" s="74">
+        <v>44246</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="104" t="s">
+        <v>136</v>
+      </c>
       <c r="L13" s="69"/>
-    </row>
-    <row r="14" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="D14" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74">
+      <c r="E14" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="73">
+        <v>2</v>
+      </c>
+      <c r="G14" s="74">
         <v>44244</v>
       </c>
-      <c r="G14" s="74">
+      <c r="H14" s="74">
         <v>44245</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="69"/>
+      <c r="I14" s="74">
+        <v>44246</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="104"/>
       <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M14" s="69"/>
+    </row>
+    <row r="15" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A15" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="D15" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74">
+      <c r="E15" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74">
         <v>44231</v>
-      </c>
-      <c r="G15" s="74">
-        <v>44232</v>
       </c>
       <c r="H15" s="74">
         <v>44232</v>
@@ -3098,62 +3344,66 @@
       <c r="I15" s="74">
         <v>44232</v>
       </c>
-      <c r="J15" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="69"/>
+      <c r="J15" s="74">
+        <v>44232</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="L15" s="69"/>
-    </row>
-    <row r="16" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M15" s="69"/>
+    </row>
+    <row r="16" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A16" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="D16" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74">
-        <v>44235</v>
-      </c>
+      <c r="E16" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="73"/>
       <c r="G16" s="74">
         <v>44235</v>
       </c>
       <c r="H16" s="74">
+        <v>44235</v>
+      </c>
+      <c r="I16" s="74">
         <v>44231</v>
       </c>
-      <c r="I16" s="74">
+      <c r="J16" s="74">
         <v>44235</v>
       </c>
-      <c r="J16" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="52" t="s">
+        <v>138</v>
+      </c>
       <c r="L16" s="69"/>
-    </row>
-    <row r="17" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A17" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="D17" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74">
-        <v>44235</v>
+      <c r="E17" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="73">
+        <v>1</v>
       </c>
       <c r="G17" s="74">
         <v>44235</v>
@@ -3161,33 +3411,34 @@
       <c r="H17" s="74">
         <v>44235</v>
       </c>
-      <c r="I17" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="69"/>
+      <c r="I17" s="74">
+        <v>44235</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="94" t="s">
+        <v>127</v>
+      </c>
       <c r="L17" s="69"/>
-    </row>
-    <row r="18" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M17" s="69"/>
+    </row>
+    <row r="18" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="D18" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74">
-        <v>44235</v>
-      </c>
+      <c r="E18" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="73"/>
       <c r="G18" s="74">
         <v>44235</v>
       </c>
@@ -3197,28 +3448,29 @@
       <c r="I18" s="74">
         <v>44235</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="69"/>
+      <c r="J18" s="74">
+        <v>44235</v>
+      </c>
+      <c r="K18" s="76"/>
       <c r="L18" s="69"/>
-    </row>
-    <row r="19" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M18" s="69"/>
+    </row>
+    <row r="19" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="D19" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74">
-        <v>44235</v>
-      </c>
+      <c r="E19" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="73"/>
       <c r="G19" s="74">
         <v>44235</v>
       </c>
@@ -3228,960 +3480,1099 @@
       <c r="I19" s="74">
         <v>44235</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="69"/>
+      <c r="J19" s="74">
+        <v>44235</v>
+      </c>
+      <c r="K19" s="76"/>
       <c r="L19" s="69"/>
-    </row>
-    <row r="20" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M19" s="69"/>
+    </row>
+    <row r="20" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A20" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="D20" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74">
-        <v>44236</v>
-      </c>
+      <c r="E20" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="73"/>
       <c r="G20" s="74">
         <v>44236</v>
       </c>
       <c r="H20" s="74">
+        <v>44236</v>
+      </c>
+      <c r="I20" s="74">
         <v>44232</v>
       </c>
-      <c r="I20" s="74">
+      <c r="J20" s="74">
         <v>44235</v>
       </c>
-      <c r="J20" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="69"/>
+      <c r="K20" s="76" t="s">
+        <v>120</v>
+      </c>
       <c r="L20" s="69"/>
-    </row>
-    <row r="21" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M20" s="69"/>
+    </row>
+    <row r="21" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="D21" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74">
-        <v>44236</v>
-      </c>
+      <c r="E21" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="73"/>
       <c r="G21" s="74">
         <v>44236</v>
       </c>
       <c r="H21" s="74">
+        <v>44236</v>
+      </c>
+      <c r="I21" s="74">
         <v>44235</v>
       </c>
-      <c r="I21" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="69"/>
+      <c r="J21" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="94" t="s">
+        <v>128</v>
+      </c>
       <c r="L21" s="69"/>
-    </row>
-    <row r="22" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M21" s="69"/>
+    </row>
+    <row r="22" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="D22" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74">
-        <v>44236</v>
-      </c>
+      <c r="E22" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="73"/>
       <c r="G22" s="74">
         <v>44236</v>
       </c>
       <c r="H22" s="74">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="I22" s="74">
         <v>44235</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="74">
+        <v>44235</v>
+      </c>
+      <c r="K22" s="52"/>
       <c r="L22" s="69"/>
-    </row>
-    <row r="23" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M22" s="69"/>
+    </row>
+    <row r="23" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A23" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="D23" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74">
-        <v>44236</v>
-      </c>
+      <c r="E23" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="73"/>
       <c r="G23" s="74">
         <v>44236</v>
       </c>
       <c r="H23" s="74">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="I23" s="74">
         <v>44235</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="74">
+        <v>44235</v>
+      </c>
+      <c r="K23" s="52"/>
       <c r="L23" s="69"/>
-    </row>
-    <row r="24" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M23" s="69"/>
+    </row>
+    <row r="24" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="D24" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74">
-        <v>44236</v>
-      </c>
+      <c r="E24" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="73"/>
       <c r="G24" s="74">
         <v>44236</v>
       </c>
       <c r="H24" s="74">
         <v>44236</v>
       </c>
-      <c r="I24" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="69"/>
+      <c r="I24" s="74">
+        <v>44236</v>
+      </c>
+      <c r="J24" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="94" t="s">
+        <v>129</v>
+      </c>
       <c r="L24" s="69"/>
-    </row>
-    <row r="25" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M24" s="69"/>
+    </row>
+    <row r="25" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A25" s="71">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="D25" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="82">
+      <c r="E25" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="73"/>
+      <c r="G25" s="81">
         <v>44239</v>
       </c>
-      <c r="G25" s="82">
+      <c r="H25" s="81">
         <v>44242</v>
       </c>
-      <c r="H25" s="74">
+      <c r="I25" s="74">
         <v>44236</v>
       </c>
-      <c r="I25" s="82">
+      <c r="J25" s="81">
         <v>44237</v>
       </c>
-      <c r="J25" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="69"/>
+      <c r="K25" s="75" t="s">
+        <v>123</v>
+      </c>
       <c r="L25" s="69"/>
-    </row>
-    <row r="26" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A26" s="71">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="D26" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="82">
+      <c r="E26" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="81">
         <v>44237</v>
       </c>
-      <c r="G26" s="82">
+      <c r="H26" s="81">
         <v>44237</v>
       </c>
-      <c r="H26" s="82">
+      <c r="I26" s="81">
         <v>44237</v>
       </c>
-      <c r="I26" s="82">
+      <c r="J26" s="81">
         <v>44237</v>
       </c>
-      <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
-    </row>
-    <row r="27" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M26" s="69"/>
+    </row>
+    <row r="27" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A27" s="71">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="D27" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="82">
+      <c r="E27" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="81">
         <v>44237</v>
       </c>
-      <c r="G27" s="82">
+      <c r="H27" s="81">
         <v>44237</v>
       </c>
-      <c r="H27" s="82">
+      <c r="I27" s="81">
         <v>44237</v>
       </c>
-      <c r="I27" s="82">
+      <c r="J27" s="81">
         <v>44237</v>
       </c>
-      <c r="J27" s="69"/>
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
-    </row>
-    <row r="28" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M27" s="69"/>
+    </row>
+    <row r="28" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A28" s="71">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="D28" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="82">
+      <c r="E28" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="81">
         <v>44229</v>
       </c>
-      <c r="G28" s="82">
+      <c r="H28" s="81">
         <v>44229</v>
       </c>
-      <c r="H28" s="82">
+      <c r="I28" s="81">
         <v>44229</v>
       </c>
-      <c r="I28" s="82">
+      <c r="J28" s="81">
         <v>44229</v>
       </c>
-      <c r="J28" s="69"/>
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
-    </row>
-    <row r="29" spans="1:12" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M28" s="69"/>
+    </row>
+    <row r="29" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A29" s="71">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="D29" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="82">
+      <c r="E29" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="81">
         <v>44237</v>
       </c>
-      <c r="G29" s="82">
+      <c r="H29" s="81">
         <v>44237</v>
       </c>
-      <c r="H29" s="82">
+      <c r="I29" s="81">
         <v>44237</v>
       </c>
-      <c r="I29" s="82">
+      <c r="J29" s="81">
         <v>44237</v>
       </c>
-      <c r="J29" t="s">
-        <v>136</v>
-      </c>
-      <c r="K29" s="69"/>
+      <c r="K29" s="103" t="s">
+        <v>132</v>
+      </c>
       <c r="L29" s="69"/>
-    </row>
-    <row r="30" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M29" s="69"/>
+    </row>
+    <row r="30" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A30" s="71">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="D30" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="82">
+      <c r="E30" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="81">
         <v>44242</v>
       </c>
-      <c r="G30" s="82">
+      <c r="H30" s="81">
         <v>44243</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="81">
+        <v>44246</v>
+      </c>
+      <c r="J30" s="81">
+        <v>44246</v>
+      </c>
+      <c r="K30" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="L30" s="69"/>
-    </row>
-    <row r="31" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M30" s="69"/>
+    </row>
+    <row r="31" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="71"/>
+      <c r="C31" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="D31" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="82">
+      <c r="E31" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="81">
         <v>44242</v>
       </c>
-      <c r="G31" s="82">
+      <c r="H31" s="81">
         <v>44243</v>
       </c>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="69" t="s">
+        <v>139</v>
+      </c>
       <c r="L31" s="69"/>
-    </row>
-    <row r="32" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M31" s="69"/>
+    </row>
+    <row r="32" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A32" s="71">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="D32" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="82">
+      <c r="E32" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="81">
         <v>44239</v>
       </c>
-      <c r="G32" s="82">
+      <c r="H32" s="81">
         <v>44242</v>
       </c>
-      <c r="H32" s="82">
+      <c r="I32" s="81">
         <v>44236</v>
       </c>
-      <c r="I32" s="82">
+      <c r="J32" s="81">
         <v>44239</v>
       </c>
-      <c r="J32" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="69" t="s">
+        <v>131</v>
+      </c>
       <c r="L32" s="69"/>
-    </row>
-    <row r="33" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M32" s="69"/>
+    </row>
+    <row r="33" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A33" s="71">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="82">
-        <v>44239</v>
-      </c>
-      <c r="G33" s="82">
-        <v>44243</v>
-      </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
+      <c r="D33" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="82"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81">
+        <v>44242</v>
+      </c>
+      <c r="J33" s="81">
+        <v>44245</v>
+      </c>
+      <c r="K33" s="69" t="s">
+        <v>146</v>
+      </c>
       <c r="L33" s="69"/>
-    </row>
-    <row r="34" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M33" s="69"/>
+    </row>
+    <row r="34" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A34" s="71">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="82">
+      <c r="D34" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81">
         <v>44239</v>
       </c>
-      <c r="G34" s="82">
-        <v>44243</v>
-      </c>
-      <c r="H34" s="82">
-        <v>44239</v>
-      </c>
-      <c r="I34" s="82"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
+      <c r="J34" s="81">
+        <v>44245</v>
+      </c>
+      <c r="K34" s="69" t="s">
+        <v>147</v>
+      </c>
       <c r="L34" s="69"/>
-    </row>
-    <row r="35" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M34" s="69"/>
+    </row>
+    <row r="35" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A35" s="71">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="82">
+      <c r="D35" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="82"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81">
         <v>44239</v>
       </c>
-      <c r="G35" s="82">
-        <v>44243</v>
-      </c>
-      <c r="H35" s="82">
-        <v>44239</v>
-      </c>
-      <c r="I35" s="82"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
+      <c r="J35" s="81">
+        <v>44245</v>
+      </c>
+      <c r="K35" s="69" t="s">
+        <v>147</v>
+      </c>
       <c r="L35" s="69"/>
-    </row>
-    <row r="36" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-    </row>
-    <row r="37" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M35" s="69"/>
+    </row>
+    <row r="36" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="71">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81">
+        <v>44246</v>
+      </c>
+      <c r="J36" s="81"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+    </row>
+    <row r="37" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A37" s="71">
-        <f>ROW()-5</f>
-        <v>32</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>133</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82">
-        <v>44249</v>
-      </c>
-      <c r="G37" s="82">
-        <v>44249</v>
-      </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81">
+        <v>44246</v>
+      </c>
+      <c r="J37" s="81"/>
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
-    </row>
-    <row r="38" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M37" s="69"/>
+    </row>
+    <row r="38" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A38" s="71">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="82"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81">
+        <v>44246</v>
+      </c>
+      <c r="J38" s="81"/>
+      <c r="K38" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+    </row>
+    <row r="39" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+    </row>
+    <row r="40" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="71">
         <f>ROW()-5</f>
-        <v>33</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="82">
+      <c r="E40" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="82"/>
+      <c r="G40" s="81">
         <v>44249</v>
       </c>
-      <c r="G38" s="82">
+      <c r="H40" s="81">
         <v>44249</v>
       </c>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-    </row>
-    <row r="39" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="71">
-        <f t="shared" ref="A39:A43" si="2">ROW()-5</f>
-        <v>34</v>
-      </c>
-      <c r="B39" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="82">
-        <v>44251</v>
-      </c>
-      <c r="G39" s="82">
-        <v>44251</v>
-      </c>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-    </row>
-    <row r="40" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="71">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="B40" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="82">
-        <v>44251</v>
-      </c>
-      <c r="G40" s="82">
-        <v>44251</v>
-      </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="69"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
       <c r="K40" s="69"/>
       <c r="L40" s="69"/>
-    </row>
-    <row r="41" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M40" s="69"/>
+    </row>
+    <row r="41" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A41" s="71">
-        <v>30</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>115</v>
-      </c>
+        <f>ROW()-5</f>
+        <v>36</v>
+      </c>
+      <c r="B41" s="71"/>
       <c r="C41" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="82">
-        <v>44252</v>
-      </c>
-      <c r="G41" s="82">
-        <v>44252</v>
-      </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="69"/>
+      <c r="E41" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="82"/>
+      <c r="G41" s="81">
+        <v>44249</v>
+      </c>
+      <c r="H41" s="81">
+        <v>44249</v>
+      </c>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
       <c r="K41" s="69"/>
       <c r="L41" s="69"/>
-    </row>
-    <row r="42" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M41" s="69"/>
+    </row>
+    <row r="42" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A42" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A42:A46" si="2">ROW()-5</f>
         <v>37</v>
       </c>
-      <c r="B42" s="72" t="s">
-        <v>88</v>
-      </c>
+      <c r="B42" s="71"/>
       <c r="C42" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="82">
-        <v>44252</v>
-      </c>
-      <c r="G42" s="82">
-        <v>44252</v>
-      </c>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="69"/>
+      <c r="E42" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="82"/>
+      <c r="G42" s="81">
+        <v>44251</v>
+      </c>
+      <c r="H42" s="81">
+        <v>44251</v>
+      </c>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
       <c r="K42" s="69"/>
       <c r="L42" s="69"/>
-    </row>
-    <row r="43" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M42" s="69"/>
+    </row>
+    <row r="43" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A43" s="71">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B43" s="78" t="s">
-        <v>11</v>
-      </c>
+      <c r="B43" s="71"/>
       <c r="C43" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="82">
-        <v>44253</v>
-      </c>
-      <c r="G43" s="82">
-        <v>44253</v>
-      </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="69"/>
+      <c r="E43" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="82"/>
+      <c r="G43" s="81">
+        <v>44251</v>
+      </c>
+      <c r="H43" s="81">
+        <v>44251</v>
+      </c>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
-    </row>
-    <row r="44" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65" t="s">
+      <c r="M43" s="69"/>
+    </row>
+    <row r="44" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="71">
+        <v>30</v>
+      </c>
+      <c r="B44" s="71"/>
+      <c r="C44" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="82"/>
+      <c r="G44" s="81">
+        <v>44252</v>
+      </c>
+      <c r="H44" s="81">
+        <v>44252</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+    </row>
+    <row r="45" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="71">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="82"/>
+      <c r="G45" s="81">
+        <v>44252</v>
+      </c>
+      <c r="H45" s="81">
+        <v>44252</v>
+      </c>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+    </row>
+    <row r="46" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="71">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="71"/>
+      <c r="C46" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="82"/>
+      <c r="G46" s="81">
+        <v>44253</v>
+      </c>
+      <c r="H46" s="81">
+        <v>44253</v>
+      </c>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+    </row>
+    <row r="47" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-    </row>
-    <row r="45" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="87">
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+    </row>
+    <row r="48" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A48" s="86">
         <v>26</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B48" s="86"/>
+      <c r="C48" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="D48" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90">
+      <c r="E48" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="88"/>
+      <c r="G48" s="89">
         <v>44251</v>
       </c>
-      <c r="G45" s="90">
+      <c r="H48" s="89">
         <v>44253</v>
       </c>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="97" t="s">
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-    </row>
-    <row r="46" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="87">
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+    </row>
+    <row r="49" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="86">
         <v>28</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B49" s="86"/>
+      <c r="C49" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="D49" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90">
+      <c r="E49" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="88"/>
+      <c r="G49" s="89">
         <v>44251</v>
       </c>
-      <c r="G46" s="90">
+      <c r="H49" s="89">
         <v>44253</v>
       </c>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-    </row>
-    <row r="47" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="87">
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
+    </row>
+    <row r="50" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="86">
         <v>30</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B50" s="86"/>
+      <c r="C50" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="D50" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="89"/>
-      <c r="F47" s="90">
+      <c r="E50" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="88"/>
+      <c r="G50" s="89">
         <v>44251</v>
       </c>
-      <c r="G47" s="90">
+      <c r="H50" s="89">
         <v>44253</v>
       </c>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-    </row>
-    <row r="48" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A48" s="87">
-        <f t="shared" ref="A48:A52" si="3">ROW()-5</f>
-        <v>43</v>
-      </c>
-      <c r="B48" s="88" t="s">
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+    </row>
+    <row r="51" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="86">
+        <f t="shared" ref="A51:A55" si="3">ROW()-5</f>
+        <v>46</v>
+      </c>
+      <c r="B51" s="86"/>
+      <c r="C51" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="88" t="s">
+      <c r="D51" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90">
+      <c r="E51" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="88"/>
+      <c r="G51" s="89">
         <v>44251</v>
       </c>
-      <c r="G48" s="90">
+      <c r="H51" s="89">
         <v>44253</v>
       </c>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-    </row>
-    <row r="49" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A49" s="87">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="89"/>
-      <c r="F49" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G49" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-    </row>
-    <row r="50" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="87">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="89"/>
-      <c r="F50" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G50" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-    </row>
-    <row r="51" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="87">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B51" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="90">
-        <v>44251</v>
-      </c>
-      <c r="G51" s="90">
-        <v>44253</v>
-      </c>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-    </row>
-    <row r="52" spans="1:12" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="87">
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+    </row>
+    <row r="52" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="86">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="86"/>
+      <c r="C52" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="88"/>
+      <c r="G52" s="89">
+        <v>44251</v>
+      </c>
+      <c r="H52" s="89">
+        <v>44253</v>
+      </c>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="86"/>
+    </row>
+    <row r="53" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A53" s="86">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="88"/>
+      <c r="G53" s="89">
+        <v>44251</v>
+      </c>
+      <c r="H53" s="89">
+        <v>44253</v>
+      </c>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
+    </row>
+    <row r="54" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A54" s="86">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="88"/>
+      <c r="G54" s="89">
+        <v>44251</v>
+      </c>
+      <c r="H54" s="89">
+        <v>44253</v>
+      </c>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="86"/>
+    </row>
+    <row r="55" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A55" s="86">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="86"/>
+      <c r="C55" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="88" t="s">
+      <c r="D55" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="89"/>
-      <c r="F52" s="90">
+      <c r="E55" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89">
         <v>44251</v>
       </c>
-      <c r="G52" s="90">
+      <c r="H55" s="89">
         <v>44253</v>
       </c>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-    </row>
-    <row r="53" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-    </row>
-    <row r="54" spans="1:12" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="86"/>
+    </row>
+    <row r="56" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+    </row>
+    <row r="57" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J45:J52"/>
+  <mergeCells count="4">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K48:K55"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01952E97-15C6-4539-90C7-092BD6B2C151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C997DB-2CE7-4373-B7CB-761087FCDB70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -1776,19 +1776,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイル関係の実装に時間がかかっているため</t>
-    <rPh sb="4" eb="6">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2021/2/19時点 エラー表示ページ実装したが、一部異なるエラー画面に遷移するため、原因と対策を調査</t>
     <rPh sb="9" eb="11">
       <t>ジテン</t>
@@ -1949,6 +1936,38 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル関係の実装に時間がかかっているため遅延
+2021/2/24現在 ユーザIDとpasswordについて、個別にエンティティクラスで指定したエラーメッセージを出す方法がわかっておりません</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2301,7 +2320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2553,6 +2572,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2565,6 +2590,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2577,10 +2605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2900,8 +2925,8 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2934,14 +2959,14 @@
       <c r="D2" s="61"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="95" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="96"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
@@ -3021,7 +3046,7 @@
       </c>
       <c r="J5" s="74"/>
       <c r="K5" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L5" s="69"/>
       <c r="M5" s="69"/>
@@ -3104,7 +3129,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="73" t="s">
         <v>8</v>
@@ -3279,7 +3304,7 @@
       <c r="J13" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="101" t="s">
         <v>136</v>
       </c>
       <c r="L13" s="69"/>
@@ -3315,7 +3340,7 @@
       <c r="J14" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="104"/>
+      <c r="K14" s="101"/>
       <c r="L14" s="69"/>
       <c r="M14" s="69"/>
     </row>
@@ -3811,7 +3836,7 @@
       <c r="J29" s="81">
         <v>44237</v>
       </c>
-      <c r="K29" s="103" t="s">
+      <c r="K29" s="96" t="s">
         <v>132</v>
       </c>
       <c r="L29" s="69"/>
@@ -3846,12 +3871,12 @@
         <v>44246</v>
       </c>
       <c r="K30" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L30" s="69"/>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3873,10 +3898,12 @@
       <c r="H31" s="81">
         <v>44243</v>
       </c>
-      <c r="I31" s="81"/>
+      <c r="I31" s="81">
+        <v>44251</v>
+      </c>
       <c r="J31" s="81"/>
-      <c r="K31" s="69" t="s">
-        <v>139</v>
+      <c r="K31" s="106" t="s">
+        <v>147</v>
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="69"/>
@@ -3942,7 +3969,7 @@
         <v>44245</v>
       </c>
       <c r="K33" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L33" s="69"/>
       <c r="M33" s="69"/>
@@ -3974,7 +4001,7 @@
         <v>44245</v>
       </c>
       <c r="K34" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L34" s="69"/>
       <c r="M34" s="69"/>
@@ -4006,7 +4033,7 @@
         <v>44245</v>
       </c>
       <c r="K35" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L35" s="69"/>
       <c r="M35" s="69"/>
@@ -4023,7 +4050,7 @@
         <v>81</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="73" t="s">
         <v>8</v>
@@ -4034,7 +4061,9 @@
       <c r="I36" s="81">
         <v>44246</v>
       </c>
-      <c r="J36" s="81"/>
+      <c r="J36" s="81">
+        <v>44251</v>
+      </c>
       <c r="K36" s="69"/>
       <c r="L36" s="69"/>
       <c r="M36" s="69"/>
@@ -4051,7 +4080,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="73" t="s">
         <v>8</v>
@@ -4062,7 +4091,9 @@
       <c r="I37" s="81">
         <v>44246</v>
       </c>
-      <c r="J37" s="81"/>
+      <c r="J37" s="81">
+        <v>44251</v>
+      </c>
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
       <c r="M37" s="69"/>
@@ -4090,9 +4121,11 @@
       <c r="I38" s="81">
         <v>44246</v>
       </c>
-      <c r="J38" s="81"/>
+      <c r="J38" s="81">
+        <v>44251</v>
+      </c>
       <c r="K38" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L38" s="69"/>
       <c r="M38" s="69"/>
@@ -4114,200 +4147,200 @@
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
     </row>
-    <row r="40" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="71">
+    <row r="40" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="86">
         <f>ROW()-5</f>
         <v>35</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="86"/>
+      <c r="C40" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="81">
+      <c r="E40" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="95"/>
+      <c r="G40" s="89">
         <v>44249</v>
       </c>
-      <c r="H40" s="81">
+      <c r="H40" s="89">
         <v>44249</v>
       </c>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-    </row>
-    <row r="41" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="71">
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+    </row>
+    <row r="41" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="86">
         <f>ROW()-5</f>
         <v>36</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="86"/>
+      <c r="C41" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="81">
+      <c r="E41" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="95"/>
+      <c r="G41" s="89">
         <v>44249</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="89">
         <v>44249</v>
       </c>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-    </row>
-    <row r="42" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="71">
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+    </row>
+    <row r="42" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="86">
         <f t="shared" ref="A42:A46" si="2">ROW()-5</f>
         <v>37</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="86"/>
+      <c r="C42" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="82"/>
-      <c r="G42" s="81">
+      <c r="E42" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="95"/>
+      <c r="G42" s="89">
         <v>44251</v>
       </c>
-      <c r="H42" s="81">
+      <c r="H42" s="89">
         <v>44251</v>
       </c>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-    </row>
-    <row r="43" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="71">
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+    </row>
+    <row r="43" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="86">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="72" t="s">
+      <c r="B43" s="86"/>
+      <c r="C43" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="81">
+      <c r="E43" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="95"/>
+      <c r="G43" s="89">
         <v>44251</v>
       </c>
-      <c r="H43" s="81">
+      <c r="H43" s="89">
         <v>44251</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-    </row>
-    <row r="44" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A44" s="71">
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+    </row>
+    <row r="44" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="86">
         <v>30</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="86"/>
+      <c r="C44" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="82"/>
-      <c r="G44" s="81">
+      <c r="E44" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="95"/>
+      <c r="G44" s="89">
         <v>44252</v>
       </c>
-      <c r="H44" s="81">
+      <c r="H44" s="89">
         <v>44252</v>
       </c>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-    </row>
-    <row r="45" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="71">
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+    </row>
+    <row r="45" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="86">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="86"/>
+      <c r="C45" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="81">
+      <c r="E45" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="95"/>
+      <c r="G45" s="89">
         <v>44252</v>
       </c>
-      <c r="H45" s="81">
+      <c r="H45" s="89">
         <v>44252</v>
       </c>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-    </row>
-    <row r="46" spans="1:13" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="71">
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+    </row>
+    <row r="46" spans="1:13" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="86">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="77" t="s">
+      <c r="B46" s="86"/>
+      <c r="C46" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="81">
+      <c r="E46" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="95"/>
+      <c r="G46" s="89">
         <v>44253</v>
       </c>
-      <c r="H46" s="81">
+      <c r="H46" s="89">
         <v>44253</v>
       </c>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
     </row>
     <row r="47" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="65"/>
@@ -4351,7 +4384,7 @@
       </c>
       <c r="I48" s="89"/>
       <c r="J48" s="89"/>
-      <c r="K48" s="97" t="s">
+      <c r="K48" s="99" t="s">
         <v>112</v>
       </c>
       <c r="L48" s="86"/>
@@ -4380,7 +4413,7 @@
       </c>
       <c r="I49" s="89"/>
       <c r="J49" s="89"/>
-      <c r="K49" s="98"/>
+      <c r="K49" s="100"/>
       <c r="L49" s="86"/>
       <c r="M49" s="86"/>
     </row>
@@ -4407,7 +4440,7 @@
       </c>
       <c r="I50" s="89"/>
       <c r="J50" s="89"/>
-      <c r="K50" s="98"/>
+      <c r="K50" s="100"/>
       <c r="L50" s="86"/>
       <c r="M50" s="86"/>
     </row>
@@ -4435,7 +4468,7 @@
       </c>
       <c r="I51" s="89"/>
       <c r="J51" s="89"/>
-      <c r="K51" s="98"/>
+      <c r="K51" s="100"/>
       <c r="L51" s="86"/>
       <c r="M51" s="86"/>
     </row>
@@ -4463,7 +4496,7 @@
       </c>
       <c r="I52" s="89"/>
       <c r="J52" s="89"/>
-      <c r="K52" s="98"/>
+      <c r="K52" s="100"/>
       <c r="L52" s="86"/>
       <c r="M52" s="86"/>
     </row>
@@ -4491,7 +4524,7 @@
       </c>
       <c r="I53" s="89"/>
       <c r="J53" s="89"/>
-      <c r="K53" s="98"/>
+      <c r="K53" s="100"/>
       <c r="L53" s="86"/>
       <c r="M53" s="86"/>
     </row>
@@ -4519,7 +4552,7 @@
       </c>
       <c r="I54" s="89"/>
       <c r="J54" s="89"/>
-      <c r="K54" s="98"/>
+      <c r="K54" s="100"/>
       <c r="L54" s="86"/>
       <c r="M54" s="86"/>
     </row>
@@ -4547,7 +4580,7 @@
       </c>
       <c r="I55" s="89"/>
       <c r="J55" s="89"/>
-      <c r="K55" s="98"/>
+      <c r="K55" s="100"/>
       <c r="L55" s="86"/>
       <c r="M55" s="86"/>
     </row>
@@ -4609,14 +4642,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="99" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="100"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -5669,14 +5702,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="99" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="100"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -6056,7 +6089,7 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="104" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6081,7 +6114,7 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="102"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C997DB-2CE7-4373-B7CB-761087FCDB70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A2EAE1-6489-4F53-AB18-9D5324FCC68C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -1941,7 +1941,8 @@
   </si>
   <si>
     <t>ファイル関係の実装に時間がかかっているため遅延
-2021/2/24現在 ユーザIDとpasswordについて、個別にエンティティクラスで指定したエラーメッセージを出す方法がわかっておりません</t>
+2021/2/24現在 ユーザIDとpasswordについて、個別にエンティティクラスで指定したエラーメッセージを出す方法がわかっておりません
+→セッションに入れて引き回すことで解決しました</t>
     <rPh sb="4" eb="6">
       <t>カンケイ</t>
     </rPh>
@@ -1968,6 +1969,18 @@
     </rPh>
     <rPh sb="83" eb="85">
       <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>カイケツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2578,6 +2591,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2603,9 +2619,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2938,8 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2959,14 +2972,14 @@
       <c r="D2" s="61"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="97" t="s">
+      <c r="H2" s="99"/>
+      <c r="I2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="99"/>
       <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
@@ -3304,7 +3317,7 @@
       <c r="J13" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="102" t="s">
         <v>136</v>
       </c>
       <c r="L13" s="69"/>
@@ -3340,7 +3353,7 @@
       <c r="J14" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="101"/>
+      <c r="K14" s="102"/>
       <c r="L14" s="69"/>
       <c r="M14" s="69"/>
     </row>
@@ -3857,7 +3870,9 @@
       <c r="E30" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="82"/>
+      <c r="F30" s="82">
+        <v>4</v>
+      </c>
       <c r="G30" s="81">
         <v>44242</v>
       </c>
@@ -3876,7 +3891,7 @@
       <c r="L30" s="69"/>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" spans="1:13" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" s="70" customFormat="1" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3891,7 +3906,9 @@
       <c r="E31" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="82"/>
+      <c r="F31" s="82">
+        <v>6</v>
+      </c>
       <c r="G31" s="81">
         <v>44242</v>
       </c>
@@ -3901,8 +3918,10 @@
       <c r="I31" s="81">
         <v>44251</v>
       </c>
-      <c r="J31" s="81"/>
-      <c r="K31" s="106" t="s">
+      <c r="J31" s="81">
+        <v>44252</v>
+      </c>
+      <c r="K31" s="97" t="s">
         <v>147</v>
       </c>
       <c r="L31" s="69"/>
@@ -3959,7 +3978,9 @@
       <c r="E33" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="82"/>
+      <c r="F33" s="82">
+        <v>3</v>
+      </c>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81">
@@ -3991,7 +4012,9 @@
       <c r="E34" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="82"/>
+      <c r="F34" s="82">
+        <v>4</v>
+      </c>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
       <c r="I34" s="81">
@@ -4023,7 +4046,9 @@
       <c r="E35" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="82"/>
+      <c r="F35" s="82">
+        <v>4</v>
+      </c>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
       <c r="I35" s="81">
@@ -4055,7 +4080,9 @@
       <c r="E36" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="82"/>
+      <c r="F36" s="82">
+        <v>2</v>
+      </c>
       <c r="G36" s="81"/>
       <c r="H36" s="81"/>
       <c r="I36" s="81">
@@ -4085,7 +4112,9 @@
       <c r="E37" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="82"/>
+      <c r="F37" s="82">
+        <v>2</v>
+      </c>
       <c r="G37" s="81"/>
       <c r="H37" s="81"/>
       <c r="I37" s="81">
@@ -4115,7 +4144,9 @@
       <c r="E38" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="82"/>
+      <c r="F38" s="82">
+        <v>2</v>
+      </c>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
       <c r="I38" s="81">
@@ -4384,7 +4415,7 @@
       </c>
       <c r="I48" s="89"/>
       <c r="J48" s="89"/>
-      <c r="K48" s="99" t="s">
+      <c r="K48" s="100" t="s">
         <v>112</v>
       </c>
       <c r="L48" s="86"/>
@@ -4413,7 +4444,7 @@
       </c>
       <c r="I49" s="89"/>
       <c r="J49" s="89"/>
-      <c r="K49" s="100"/>
+      <c r="K49" s="101"/>
       <c r="L49" s="86"/>
       <c r="M49" s="86"/>
     </row>
@@ -4440,7 +4471,7 @@
       </c>
       <c r="I50" s="89"/>
       <c r="J50" s="89"/>
-      <c r="K50" s="100"/>
+      <c r="K50" s="101"/>
       <c r="L50" s="86"/>
       <c r="M50" s="86"/>
     </row>
@@ -4468,7 +4499,7 @@
       </c>
       <c r="I51" s="89"/>
       <c r="J51" s="89"/>
-      <c r="K51" s="100"/>
+      <c r="K51" s="101"/>
       <c r="L51" s="86"/>
       <c r="M51" s="86"/>
     </row>
@@ -4496,7 +4527,7 @@
       </c>
       <c r="I52" s="89"/>
       <c r="J52" s="89"/>
-      <c r="K52" s="100"/>
+      <c r="K52" s="101"/>
       <c r="L52" s="86"/>
       <c r="M52" s="86"/>
     </row>
@@ -4524,7 +4555,7 @@
       </c>
       <c r="I53" s="89"/>
       <c r="J53" s="89"/>
-      <c r="K53" s="100"/>
+      <c r="K53" s="101"/>
       <c r="L53" s="86"/>
       <c r="M53" s="86"/>
     </row>
@@ -4552,7 +4583,7 @@
       </c>
       <c r="I54" s="89"/>
       <c r="J54" s="89"/>
-      <c r="K54" s="100"/>
+      <c r="K54" s="101"/>
       <c r="L54" s="86"/>
       <c r="M54" s="86"/>
     </row>
@@ -4580,7 +4611,7 @@
       </c>
       <c r="I55" s="89"/>
       <c r="J55" s="89"/>
-      <c r="K55" s="100"/>
+      <c r="K55" s="101"/>
       <c r="L55" s="86"/>
       <c r="M55" s="86"/>
     </row>
@@ -4642,14 +4673,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="102" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -5702,14 +5733,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="102" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -6089,7 +6120,7 @@
         <v>44180</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="104" t="s">
+      <c r="I18" s="105" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6114,7 +6145,7 @@
         <v>44180</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="105"/>
+      <c r="I19" s="106"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">

--- a/document/【ファイルサーバ課題】WBS.xlsx
+++ b/document/【ファイルサーバ課題】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A2EAE1-6489-4F53-AB18-9D5324FCC68C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF1DA2-29EE-498B-AC28-56A6AD95E247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="150">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -1981,6 +1981,32 @@
     </rPh>
     <rPh sb="113" eb="115">
       <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*2021/2/26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティへの変数の埋め込みが完了できませんでしたが、全てメッセージは出せております。</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2939,7 +2965,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -3047,7 +3073,9 @@
       <c r="E5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="73">
+        <v>6</v>
+      </c>
       <c r="G5" s="74">
         <v>44229</v>
       </c>
@@ -3057,7 +3085,9 @@
       <c r="I5" s="74">
         <v>44232</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="74">
+        <v>44253</v>
+      </c>
       <c r="K5" s="75" t="s">
         <v>141</v>
       </c>
@@ -3147,16 +3177,24 @@
       <c r="E8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="73">
+        <v>5</v>
+      </c>
       <c r="G8" s="74">
         <v>44245</v>
       </c>
       <c r="H8" s="74">
         <v>44245</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="I8" s="74">
+        <v>44253</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>149</v>
+      </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
     </row>
